--- a/Математика/ШмидтАВ_ДЗ.xlsx
+++ b/Математика/ШмидтАВ_ДЗ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tony_\OneDrive\Документы\omstu-works-2\Математика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CA843F-5686-4A98-B172-CC44948DEA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084AF248-156E-47C5-9BEF-C8F476AD9988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ДЗ1 - метод половинного деления" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,12 @@
     <sheet name="ДЗ4 - Метод итерации" sheetId="8" r:id="rId6"/>
     <sheet name="ДЗ4 - Метод Ньютона" sheetId="9" r:id="rId7"/>
     <sheet name="ДЗ4 - Метод скорейшего спуска" sheetId="10" r:id="rId8"/>
+    <sheet name="ДЗ5 - Многочлен Лагранжа" sheetId="11" r:id="rId9"/>
+    <sheet name="ДЗ5 - Многочлен Ньютона" sheetId="12" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -68,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="213">
   <si>
     <t>Уравнение</t>
   </si>
@@ -641,6 +646,105 @@
   <si>
     <t>x=-1/2</t>
   </si>
+  <si>
+    <t>cos(x+e^(cos(x)))</t>
+  </si>
+  <si>
+    <t>Табуляция на [0;1] с шагом 0,2</t>
+  </si>
+  <si>
+    <t>Многочлен Лагранжа</t>
+  </si>
+  <si>
+    <t>Исходная функция для проверки</t>
+  </si>
+  <si>
+    <t>l_0</t>
+  </si>
+  <si>
+    <t>l_1</t>
+  </si>
+  <si>
+    <t>l_2</t>
+  </si>
+  <si>
+    <t>l_3</t>
+  </si>
+  <si>
+    <t>l_4</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L сокращенный</t>
+  </si>
+  <si>
+    <t>y0*((x-x1)(x-x2)(x-x3)(x-x4)/(x0-x1)(x0-x2)(x0-x3)(x0-x4))</t>
+  </si>
+  <si>
+    <t>x^4</t>
+  </si>
+  <si>
+    <t>y1*((x-x0)(x-x2)(x-x3)(x-x4)/(x1-x0)(x1-x2)(x1-x3)(x1-x4))</t>
+  </si>
+  <si>
+    <t>x^3</t>
+  </si>
+  <si>
+    <t>y2*((x-x0)(x-x1)(x-x3)(x-x4)/(x2-x0)(x2-x1)(x2-x3)(x2-x4))</t>
+  </si>
+  <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>y3*((x-x0)(x-x1)(x-x2)(x-x4)/(x3-x0)(x3-x1)(x3-x2)(x3-x4))</t>
+  </si>
+  <si>
+    <t>x^1</t>
+  </si>
+  <si>
+    <t>y4*((x-x0)(x-x1)(x-x2)(x-x3)/(x4-x0)(x4-x1)(x4-x2)(x4-x3))</t>
+  </si>
+  <si>
+    <t>x^0</t>
+  </si>
+  <si>
+    <t>Функция</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>Табуляция на [4; 4,4]</t>
+  </si>
+  <si>
+    <t>Таблица конечных разностей</t>
+  </si>
+  <si>
+    <t>d1yi</t>
+  </si>
+  <si>
+    <t>d2yi</t>
+  </si>
+  <si>
+    <t>d3yi</t>
+  </si>
+  <si>
+    <t>d4yi</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Первая формула Ньютона</t>
+  </si>
+  <si>
+    <t>f(4,39)</t>
+  </si>
 </sst>
 </file>
 
@@ -694,7 +798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -776,12 +880,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -796,6 +913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -803,6 +921,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -9178,6 +9302,509 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>cos(x+e^(cos(x)))</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ДЗ5 - Многочлен Лагранжа'!$D$6:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ДЗ5 - Многочлен Лагранжа'!$H$18:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.91173391478696508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.94379814193779332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.96189138749512737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.97084924322141375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.97374874326976235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.97216067704633868</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.9666604230107646</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.95739978929344105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.94458740832705113</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.91173391478696508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B380-4EC2-B76E-AF539B690277}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Многочлен Лагранжа</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ДЗ5 - Многочлен Лагранжа'!$D$6:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ДЗ5 - Многочлен Лагранжа'!$G$18:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.91173391478696508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.91890846691614381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.96189138749512737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.98153828255564146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.97374874326976235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.96146330777689659</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.96666042301076449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.98235340652638392</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.94458740832705079</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.91173391478696508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B380-4EC2-B76E-AF539B690277}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>L сокращённый</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ДЗ5 - Многочлен Лагранжа'!$I$18:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.91169999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.94344609374999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.96189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.97100234374999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.97370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.97194609374999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.96669999999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.95792734374999988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.9446</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.91169999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B380-4EC2-B76E-AF539B690277}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2033120208"/>
+        <c:axId val="2033121040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2033120208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2033121040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2033121040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2033120208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9339,6 +9966,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11958,6 +12625,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -12167,6 +13350,223 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD55D428-3DA4-4900-B76C-BF1DF82603DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Многочлен Лагранжа"/>
+      <sheetName val="Многочлен Ньютона"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>0.30000000000000004</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>0.7</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>0.79999999999999993</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="G18">
+            <v>-0.91173391478696508</v>
+          </cell>
+          <cell r="H18">
+            <v>-0.91173391478696508</v>
+          </cell>
+          <cell r="I18">
+            <v>-0.91169999999999995</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="G19">
+            <v>-0.91890846691614381</v>
+          </cell>
+          <cell r="H19">
+            <v>-0.94379814193779332</v>
+          </cell>
+          <cell r="I19">
+            <v>-0.94344609374999999</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="G20">
+            <v>-0.96189138749512737</v>
+          </cell>
+          <cell r="H20">
+            <v>-0.96189138749512737</v>
+          </cell>
+          <cell r="I20">
+            <v>-0.96189999999999998</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="G21">
+            <v>-0.98153828255564146</v>
+          </cell>
+          <cell r="H21">
+            <v>-0.97084924322141375</v>
+          </cell>
+          <cell r="I21">
+            <v>-0.97100234374999994</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="G22">
+            <v>-0.97374874326976235</v>
+          </cell>
+          <cell r="H22">
+            <v>-0.97374874326976235</v>
+          </cell>
+          <cell r="I22">
+            <v>-0.97370000000000001</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="G23">
+            <v>-0.96146330777689659</v>
+          </cell>
+          <cell r="H23">
+            <v>-0.97216067704633868</v>
+          </cell>
+          <cell r="I23">
+            <v>-0.97194609374999996</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="G24">
+            <v>-0.96666042301076449</v>
+          </cell>
+          <cell r="H24">
+            <v>-0.9666604230107646</v>
+          </cell>
+          <cell r="I24">
+            <v>-0.96669999999999989</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="G25">
+            <v>-0.98235340652638392</v>
+          </cell>
+          <cell r="H25">
+            <v>-0.95739978929344105</v>
+          </cell>
+          <cell r="I25">
+            <v>-0.95792734374999988</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="G26">
+            <v>-0.94458740832705079</v>
+          </cell>
+          <cell r="H26">
+            <v>-0.94458740832705113</v>
+          </cell>
+          <cell r="I26">
+            <v>-0.9446</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="G27">
+            <v>-0.91173391478696508</v>
+          </cell>
+          <cell r="H27">
+            <v>-0.91173391478696508</v>
+          </cell>
+          <cell r="I27">
+            <v>-0.91169999999999995</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15477,6 +16877,293 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD330CF1-DA2B-4430-82B5-2D46FF20A5B9}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="14">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D4" s="14">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="D6" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14">
+        <f>COS(A8+EXP(COS(A8)))</f>
+        <v>-0.1910599535735136</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4</v>
+      </c>
+      <c r="E8" s="14">
+        <f>COS(D8+EXP(COS(D8)))</f>
+        <v>-0.1910599535735136</v>
+      </c>
+      <c r="F8" s="14">
+        <f>E9-E8</f>
+        <v>0.14149523328410354</v>
+      </c>
+      <c r="G8" s="14">
+        <f>F9-F8</f>
+        <v>7.9801640297694765E-3</v>
+      </c>
+      <c r="H8" s="14">
+        <f>G9-G8</f>
+        <v>-2.803442272409723E-3</v>
+      </c>
+      <c r="I8" s="14">
+        <f>H9-H8</f>
+        <v>-1.0750080124661276E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="14">
+        <f>A8+0.1</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B9" s="14">
+        <f t="shared" ref="B9:B12" si="0">COS(A9+EXP(COS(A9)))</f>
+        <v>-4.9564720289410065E-2</v>
+      </c>
+      <c r="D9" s="14">
+        <f>D8+0.1</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" ref="E9:E12" si="1">COS(D9+EXP(COS(D9)))</f>
+        <v>-4.9564720289410065E-2</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" ref="F9:G11" si="2">E10-E9</f>
+        <v>0.14947539731387302</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="2"/>
+        <v>5.1767217573597535E-3</v>
+      </c>
+      <c r="H9" s="14">
+        <f>G10-G9</f>
+        <v>-3.8784502848758506E-3</v>
+      </c>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="14">
+        <f t="shared" ref="A10:A12" si="3">A9+0.1</f>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="B10" s="14">
+        <f t="shared" si="0"/>
+        <v>9.9910677024462949E-2</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" ref="D10:D12" si="4">D9+0.1</f>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="1"/>
+        <v>9.9910677024462949E-2</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="2"/>
+        <v>0.15465211907123277</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="2"/>
+        <v>1.2982714724839028E-3</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="14">
+        <f t="shared" si="3"/>
+        <v>4.2999999999999989</v>
+      </c>
+      <c r="B11" s="14">
+        <f t="shared" si="0"/>
+        <v>0.25456279609569571</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="4"/>
+        <v>4.2999999999999989</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="1"/>
+        <v>0.25456279609569571</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="2"/>
+        <v>0.15595039054371668</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="14">
+        <f t="shared" si="3"/>
+        <v>4.3999999999999986</v>
+      </c>
+      <c r="B12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.41051318663941239</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="4"/>
+        <v>4.3999999999999986</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="1"/>
+        <v>0.41051318663941239</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D14" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D15" s="14">
+        <f>D8</f>
+        <v>4</v>
+      </c>
+      <c r="E15" s="14">
+        <f>C4</f>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F15" s="14">
+        <f>D9-D8</f>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="G15" s="14">
+        <f>(E15-D15)/F15</f>
+        <v>3.9000000000000106</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D17" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D18" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="14">
+        <f>E8+F8*G15+G8*((G15*(G15-1))/2)+H8*((G15*(G15-1)*(G15-2))/6)+I8*((G15*(G15-1)*(G15-2)*(G15-3))/24)</f>
+        <v>0.39499247355495709</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D17:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W103"/>
@@ -19448,13 +21135,13 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="G9" s="5" t="s">
         <v>51</v>
       </c>
@@ -19775,12 +21462,12 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="I15" s="5">
         <v>10</v>
       </c>
@@ -20717,13 +22404,13 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="G9" s="5" t="s">
         <v>51</v>
       </c>
@@ -21044,12 +22731,12 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="G15" s="5" t="s">
         <v>55</v>
       </c>
@@ -21653,7 +23340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -21693,25 +23380,25 @@
       <c r="E3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
       <c r="M3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="17"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
@@ -21729,8 +23416,8 @@
       <c r="E4" s="5">
         <v>-13.390309999999999</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="5" t="s">
         <v>36</v>
       </c>
@@ -21769,7 +23456,7 @@
       <c r="E5" s="5">
         <v>6.7320399999999996</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="16">
         <v>1</v>
       </c>
       <c r="H5" s="5">
@@ -21815,7 +23502,7 @@
       <c r="E6" s="5">
         <v>-1.2572000000000001</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="5">
         <f>-I6/I$7</f>
         <v>0.12368665602504192</v>
@@ -21859,7 +23546,7 @@
       <c r="E7" s="5">
         <v>-11.351179999999999</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="6" t="s">
         <v>65</v>
       </c>
@@ -21887,7 +23574,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G8" s="16"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="5">
         <f>-I8/I$7</f>
         <v>3.0157445654348768E-3</v>
@@ -21916,7 +23603,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G9" s="15">
+      <c r="G9" s="16">
         <v>2</v>
       </c>
       <c r="H9" s="5">
@@ -21953,7 +23640,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G10" s="18"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="5">
         <f>-J10/J$11</f>
         <v>0.59192213481208067</v>
@@ -21988,7 +23675,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G11" s="18"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="6" t="s">
         <v>65</v>
       </c>
@@ -22022,7 +23709,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G12" s="15">
+      <c r="G12" s="16">
         <v>3</v>
       </c>
       <c r="H12" s="5">
@@ -22059,7 +23746,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G13" s="16"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="6" t="s">
         <v>65</v>
       </c>
@@ -23187,22 +24874,22 @@
       <c r="A1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -36829,4 +38516,614 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBBF1C5-DCD3-4858-A3E7-B21F88EE6B3C}">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D5" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="14">
+        <f>D6+0.1</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="14">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
+        <f>COS(A8+EXP(COS(A8)))</f>
+        <v>-0.91173391478696508</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" ref="D8:D13" si="0">D7+0.1</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="14">
+        <f>A8+0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="B9" s="14">
+        <f t="shared" ref="B9:B13" si="1">COS(A9+EXP(COS(A9)))</f>
+        <v>-0.96189138749512737</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="14">
+        <f t="shared" ref="A10:A12" si="2">A9+0.2</f>
+        <v>0.4</v>
+      </c>
+      <c r="B10" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.97374874326976235</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="14">
+        <f t="shared" si="2"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="B11" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.9666604230107646</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="14">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="B12" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.94458740832705101</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="14">
+        <f>A12+0.2</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.91101112436955167</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D14" s="14">
+        <f>D13+0.1</f>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="14">
+        <f t="shared" ref="B18:B26" si="3">B$8*(((D6-A$9)*(D6-A$10)*(D6-A$11)*(D6-A$12)*(D6-A$13))/((A$8-A$9)*(A$8-A$10)*(A$8-A$11)*(A$8-A$12)*(A$8-A$13)))</f>
+        <v>-0.91173391478696508</v>
+      </c>
+      <c r="C18" s="14">
+        <f t="shared" ref="C18:C26" si="4">B$9*(((D6-A$8)*(D6-A$10)*(D6-A$11)*(D6-A$12)*(D6-A$13))/((A$9-A$8)*(A$9-A$10)*(A$9-A$11)*(A$9-A$12)*(A$9-A$13)))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" ref="D18:D26" si="5">B$10*(((D6-A$8)*(D6-A$9)*(D6-A$11)*(D6-A$12)*(D6-A$13))/((A$10-A$8)*(A$10-A$9)*(A$10-A$11)*(A$10-A$12)*(A$10-A$13)))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" ref="E18:E26" si="6">B$11*(((D6-A$8)*(D6-A$9)*(D6-A$10)*(D6-A$12)*(D6-A$13))/(($A$11-$A$8)*($A$11-$A$9)*($A$11-$A$10)*($A$11-$A$12)*($A$11-$A$13)))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" ref="F18:F26" si="7">$B$12*(((D6-$A$8)*(D6-$A$9)*(D6-$A$10)*(D6-$A$11)*(D6-$A$13))/(($A$12-$A$8)*($A$12-$A$9)*($A$12-$A$10)*($A$12-$A$11)*($A$12-$A$13)))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="14">
+        <f>SUM(B18:F18)</f>
+        <v>-0.91173391478696508</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" ref="H18:H27" si="8">COS(D6+EXP(COS(D6)))</f>
+        <v>-0.91173391478696508</v>
+      </c>
+      <c r="I18" s="14">
+        <f>H$29*(D6^4)+H$30*(D6^3)+H$31*(D6^2)+H$32*D6+H$33*1</f>
+        <v>-0.91169999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.22437201809210472</v>
+      </c>
+      <c r="C19" s="14">
+        <f t="shared" si="4"/>
+        <v>-1.1835772932068949</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="5"/>
+        <v>0.79877826596347701</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="6"/>
+        <v>-0.47577817695061075</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="7"/>
+        <v>0.16604075536998958</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" ref="G19:G22" si="9">SUM(B19:F19)</f>
+        <v>-0.91890846691614381</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="8"/>
+        <v>-0.94379814193779332</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" ref="I19:I27" si="10">H$29*(D7^4)+H$30*(D7^3)+H$31*(D7^2)+H$32*D7+H$33*1</f>
+        <v>-0.94344609374999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <f t="shared" si="4"/>
+        <v>-0.96189138749512737</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="9"/>
+        <v>-0.96189138749512737</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="8"/>
+        <v>-0.96189138749512737</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="10"/>
+        <v>-0.96189999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" s="14">
+        <f t="shared" si="3"/>
+        <v>2.4930224232456069E-2</v>
+      </c>
+      <c r="C21" s="14">
+        <f t="shared" si="4"/>
+        <v>-0.39452576440229808</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="5"/>
+        <v>-0.7987782659634769</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="6"/>
+        <v>0.26432120941700588</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="7"/>
+        <v>-7.7485685839328425E-2</v>
+      </c>
+      <c r="G21" s="14">
+        <f t="shared" si="9"/>
+        <v>-0.98153828255564146</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="8"/>
+        <v>-0.97084924322141375</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="10"/>
+        <v>-0.97100234374999994</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B22" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="5"/>
+        <v>-0.97374874326976235</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" si="9"/>
+        <v>-0.97374874326976235</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="8"/>
+        <v>-0.97374874326976235</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="10"/>
+        <v>-0.97370000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23" s="14">
+        <f t="shared" si="3"/>
+        <v>-1.068438181390975E-2</v>
+      </c>
+      <c r="C23" s="14">
+        <f t="shared" si="4"/>
+        <v>9.3934705810071045E-2</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" si="5"/>
+        <v>-0.57055590425962677</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="6"/>
+        <v>-0.56640259160786965</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="7"/>
+        <v>9.2244864094438647E-2</v>
+      </c>
+      <c r="G23" s="14">
+        <f>SUM(B23:F23)</f>
+        <v>-0.96146330777689659</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="8"/>
+        <v>-0.97216067704633868</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="10"/>
+        <v>-0.97194609374999996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B24" s="14">
+        <f t="shared" si="3"/>
+        <v>-1.687046640880198E-17</v>
+      </c>
+      <c r="C24" s="14">
+        <f t="shared" si="4"/>
+        <v>1.3348924569821602E-16</v>
+      </c>
+      <c r="D24" s="14">
+        <f t="shared" si="5"/>
+        <v>-5.4053913748895019E-16</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="6"/>
+        <v>-0.96666042301076427</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" si="7"/>
+        <v>2.6217567237392405E-16</v>
+      </c>
+      <c r="G24" s="14">
+        <f t="shared" ref="G24:G25" si="11">SUM(B24:F24)</f>
+        <v>-0.96666042301076449</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" si="8"/>
+        <v>-0.9666604230107646</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="10"/>
+        <v>-0.96669999999999989</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B25" s="14">
+        <f t="shared" si="3"/>
+        <v>1.0684381813909734E-2</v>
+      </c>
+      <c r="C25" s="14">
+        <f t="shared" si="4"/>
+        <v>-7.8905152880459573E-2</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" si="5"/>
+        <v>0.26625942198782543</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="6"/>
+        <v>-0.79296362825101807</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="7"/>
+        <v>-0.38742842919664139</v>
+      </c>
+      <c r="G25" s="14">
+        <f t="shared" si="11"/>
+        <v>-0.98235340652638392</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" si="8"/>
+        <v>-0.95739978929344105</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="10"/>
+        <v>-0.95792734374999988</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B26" s="14">
+        <f t="shared" si="3"/>
+        <v>2.5305699613202941E-17</v>
+      </c>
+      <c r="C26" s="14">
+        <f t="shared" si="4"/>
+        <v>-1.7798566093095455E-16</v>
+      </c>
+      <c r="D26" s="14">
+        <f t="shared" si="5"/>
+        <v>5.405391374889497E-16</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="6"/>
+        <v>-1.0732086586204438E-15</v>
+      </c>
+      <c r="F26" s="14">
+        <f t="shared" si="7"/>
+        <v>-0.94458740832705013</v>
+      </c>
+      <c r="G26" s="14">
+        <f>SUM(B26:F26)</f>
+        <v>-0.94458740832705079</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" si="8"/>
+        <v>-0.94458740832705113</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="10"/>
+        <v>-0.9446</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B27" s="14">
+        <f>B$8*(((E15-A$9)*(E15-A$10)*(E15-A$11)*(E15-A$12)*(E15-A$13))/((A$8-A$9)*(A$8-A$10)*(A$8-A$11)*(A$8-A$12)*(A$8-A$13)))</f>
+        <v>-0.91173391478696508</v>
+      </c>
+      <c r="C27" s="14">
+        <f>B$9*(((E15-A$8)*(E15-A$10)*(E15-A$11)*(E15-A$12)*(E15-A$13))/((A$9-A$8)*(A$9-A$10)*(A$9-A$11)*(A$9-A$12)*(A$9-A$13)))</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="14">
+        <f>B$10*(((E15-A$8)*(E15-A$9)*(E15-A$11)*(E15-A$12)*(E15-A$13))/((A$10-A$8)*(A$10-A$9)*(A$10-A$11)*(A$10-A$12)*(A$10-A$13)))</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <f>B$11*(((E15-A$8)*(E15-A$9)*(E15-A$10)*(E15-A$12)*(E15-A$13))/(($A$11-$A$8)*($A$11-$A$9)*($A$11-$A$10)*($A$11-$A$12)*($A$11-$A$13)))</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <f>$B$12*(((E15-$A$8)*(E15-$A$9)*(E15-$A$10)*(E15-$A$11)*(E15-$A$13))/(($A$12-$A$8)*($A$12-$A$9)*($A$12-$A$10)*($A$12-$A$11)*($A$12-$A$13)))</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
+        <f t="shared" ref="G27" si="12">SUM(B27:F27)</f>
+        <v>-0.91173391478696508</v>
+      </c>
+      <c r="H27" s="14">
+        <f t="shared" si="8"/>
+        <v>-0.91173391478696508</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="10"/>
+        <v>-0.91169999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B29" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="G29" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="H29" s="14">
+        <f>99375/240000</f>
+        <v>0.4140625</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B30" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="G30" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="H30" s="14">
+        <f>-217250/240000</f>
+        <v>-0.90520833333333328</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B31" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="G31" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H31" s="14">
+        <f>217725/240000</f>
+        <v>0.90718750000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B32" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="G32" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="H32" s="14">
+        <f>-95890/240000</f>
+        <v>-0.39954166666666668</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B33" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="G33" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="H33" s="14">
+        <f>-218808/240000</f>
+        <v>-0.91169999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Математика/ШмидтАВ_ДЗ.xlsx
+++ b/Математика/ШмидтАВ_ДЗ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tony_\OneDrive\Документы\omstu-works-2\Математика\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\omstu-works-2\Математика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084AF248-156E-47C5-9BEF-C8F476AD9988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631B21E9-037B-4AE8-9552-EB84250EB1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="14880" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ДЗ1 - метод половинного деления" sheetId="2" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="ДЗ4 - Метод итерации" sheetId="8" r:id="rId6"/>
     <sheet name="ДЗ4 - Метод Ньютона" sheetId="9" r:id="rId7"/>
     <sheet name="ДЗ4 - Метод скорейшего спуска" sheetId="10" r:id="rId8"/>
-    <sheet name="ДЗ5 - Многочлен Лагранжа" sheetId="11" r:id="rId9"/>
-    <sheet name="ДЗ5 - Многочлен Ньютона" sheetId="12" r:id="rId10"/>
+    <sheet name="ДЗ5 - Многочлен Лагранжа" sheetId="13" r:id="rId9"/>
+    <sheet name="ДЗ5 - Многочлен Ньютона" sheetId="14" r:id="rId10"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId11"/>
@@ -39,8 +39,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
@@ -73,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="221">
   <si>
     <t>Уравнение</t>
   </si>
@@ -674,9 +672,6 @@
     <t>l_4</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>L сокращенный</t>
   </si>
   <si>
@@ -744,6 +739,33 @@
   </si>
   <si>
     <t>f(4,39)</t>
+  </si>
+  <si>
+    <t>L полный</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Первая производная по формуле Ньютона</t>
+  </si>
+  <si>
+    <t>Вторая производная по формуле Ньютона</t>
+  </si>
+  <si>
+    <t>f'(4)</t>
+  </si>
+  <si>
+    <t>f'(4,4)</t>
+  </si>
+  <si>
+    <t>-sin(x+e^(cos(x)))*(1-sin(x)*e^(cos(x)))</t>
+  </si>
+  <si>
+    <t>-cos(x+e^(cos(x)))*((1-sin(x)*e^(cos(x)))^2)-sin(x+e^(cos(x)))*e^(cos(x))*(sin^2(x)-cos(x))</t>
+  </si>
+  <si>
+    <t>delta</t>
   </si>
 </sst>
 </file>
@@ -898,7 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -927,6 +949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1010,7 +1033,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2392,7 +2415,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="331119232"/>
@@ -2454,7 +2477,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="331117312"/>
@@ -2495,7 +2518,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2571,7 +2594,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3953,7 +3976,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="334104448"/>
@@ -4015,7 +4038,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="334102912"/>
@@ -4056,7 +4079,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4406,7 +4429,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="958315552"/>
@@ -4465,7 +4488,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="958324192"/>
@@ -4506,7 +4529,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8337,7 +8360,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="334977280"/>
@@ -8396,7 +8419,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="334975744"/>
@@ -8437,7 +8460,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9191,7 +9214,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1027124944"/>
@@ -9250,7 +9273,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1027115824"/>
@@ -9291,7 +9314,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9367,7 +9390,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9397,75 +9420,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'ДЗ5 - Многочлен Лагранжа'!$D$6:$D$14</c:f>
+              <c:f>'ДЗ5 - Многочлен Лагранжа'!$A$18:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79999999999999993</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ДЗ5 - Многочлен Лагранжа'!$H$18:$H$27</c:f>
+              <c:f>'ДЗ5 - Многочлен Лагранжа'!$I$18:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-0.91173391478696508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.94379814193779332</c:v>
+                  <c:v>-0.96189138749512737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.96189138749512737</c:v>
+                  <c:v>-0.97374874326976235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.97084924322141375</c:v>
+                  <c:v>-0.9666604230107646</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.97374874326976235</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.97216067704633868</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.9666604230107646</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.95739978929344105</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.94458740832705113</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.91173391478696508</c:v>
+                  <c:v>-0.94458740832705101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9473,7 +9469,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B380-4EC2-B76E-AF539B690277}"/>
+              <c16:uniqueId val="{00000000-7BE5-4EB8-81E8-641857619871}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9497,75 +9493,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'ДЗ5 - Многочлен Лагранжа'!$D$6:$D$14</c:f>
+              <c:f>'ДЗ5 - Многочлен Лагранжа'!$A$18:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79999999999999993</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ДЗ5 - Многочлен Лагранжа'!$G$18:$G$27</c:f>
+              <c:f>'ДЗ5 - Многочлен Лагранжа'!$G$18:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-0.91173391478696508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.91890846691614381</c:v>
+                  <c:v>-0.96189138749512737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.96189138749512737</c:v>
+                  <c:v>-0.97374874326976235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.98153828255564146</c:v>
+                  <c:v>-0.9666604230107646</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.97374874326976235</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.96146330777689659</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.96666042301076449</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.98235340652638392</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.94458740832705079</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.91173391478696508</c:v>
+                  <c:v>-0.94458740832705101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9573,7 +9542,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B380-4EC2-B76E-AF539B690277}"/>
+              <c16:uniqueId val="{00000001-7BE5-4EB8-81E8-641857619871}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9595,41 +9564,50 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ДЗ5 - Многочлен Лагранжа'!$A$18:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ДЗ5 - Многочлен Лагранжа'!$I$18:$I$27</c:f>
+              <c:f>'ДЗ5 - Многочлен Лагранжа'!$H$18:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-0.91169999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.94344609374999999</c:v>
+                  <c:v>-0.96189999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.96189999999999998</c:v>
+                  <c:v>-0.97370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.97100234374999994</c:v>
+                  <c:v>-0.96669999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.97370000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.97194609374999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.96669999999999989</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.95792734374999988</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.9446</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.91169999999999995</c:v>
+                  <c:v>-0.94459999999999988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9637,7 +9615,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B380-4EC2-B76E-AF539B690277}"/>
+              <c16:uniqueId val="{00000002-7BE5-4EB8-81E8-641857619871}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9694,7 +9672,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2033121040"/>
@@ -9753,7 +9731,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2033120208"/>
@@ -9794,7 +9772,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13372,7 +13350,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD55D428-3DA4-4900-B76C-BF1DF82603DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE424B3A-49E2-4EB5-A1E9-AC727FA4C3B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13396,170 +13374,82 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Многочлен Лагранжа"/>
       <sheetName val="Многочлен Ньютона"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="6">
-          <cell r="D6">
+        <row r="18">
+          <cell r="A18">
             <v>0</v>
           </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>0.30000000000000004</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>0.7</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>0.79999999999999993</v>
-          </cell>
-        </row>
-        <row r="18">
           <cell r="G18">
             <v>-0.91173391478696508</v>
           </cell>
           <cell r="H18">
-            <v>-0.91173391478696508</v>
+            <v>-0.91169999999999995</v>
           </cell>
           <cell r="I18">
-            <v>-0.91169999999999995</v>
+            <v>-0.91173391478696508</v>
           </cell>
         </row>
         <row r="19">
+          <cell r="A19">
+            <v>0.2</v>
+          </cell>
           <cell r="G19">
-            <v>-0.91890846691614381</v>
+            <v>-0.96189138749512737</v>
           </cell>
           <cell r="H19">
-            <v>-0.94379814193779332</v>
+            <v>-0.96189999999999998</v>
           </cell>
           <cell r="I19">
-            <v>-0.94344609374999999</v>
+            <v>-0.96189138749512737</v>
           </cell>
         </row>
         <row r="20">
+          <cell r="A20">
+            <v>0.4</v>
+          </cell>
           <cell r="G20">
-            <v>-0.96189138749512737</v>
+            <v>-0.97374874326976235</v>
           </cell>
           <cell r="H20">
-            <v>-0.96189138749512737</v>
+            <v>-0.97370000000000001</v>
           </cell>
           <cell r="I20">
-            <v>-0.96189999999999998</v>
+            <v>-0.97374874326976235</v>
           </cell>
         </row>
         <row r="21">
+          <cell r="A21">
+            <v>0.60000000000000009</v>
+          </cell>
           <cell r="G21">
-            <v>-0.98153828255564146</v>
+            <v>-0.9666604230107646</v>
           </cell>
           <cell r="H21">
-            <v>-0.97084924322141375</v>
+            <v>-0.96669999999999989</v>
           </cell>
           <cell r="I21">
-            <v>-0.97100234374999994</v>
+            <v>-0.9666604230107646</v>
           </cell>
         </row>
         <row r="22">
+          <cell r="A22">
+            <v>0.8</v>
+          </cell>
           <cell r="G22">
-            <v>-0.97374874326976235</v>
+            <v>-0.94458740832705101</v>
           </cell>
           <cell r="H22">
-            <v>-0.97374874326976235</v>
+            <v>-0.94459999999999988</v>
           </cell>
           <cell r="I22">
-            <v>-0.97370000000000001</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="G23">
-            <v>-0.96146330777689659</v>
-          </cell>
-          <cell r="H23">
-            <v>-0.97216067704633868</v>
-          </cell>
-          <cell r="I23">
-            <v>-0.97194609374999996</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="G24">
-            <v>-0.96666042301076449</v>
-          </cell>
-          <cell r="H24">
-            <v>-0.9666604230107646</v>
-          </cell>
-          <cell r="I24">
-            <v>-0.96669999999999989</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="G25">
-            <v>-0.98235340652638392</v>
-          </cell>
-          <cell r="H25">
-            <v>-0.95739978929344105</v>
-          </cell>
-          <cell r="I25">
-            <v>-0.95792734374999988</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="G26">
-            <v>-0.94458740832705079</v>
-          </cell>
-          <cell r="H26">
-            <v>-0.94458740832705113</v>
-          </cell>
-          <cell r="I26">
-            <v>-0.9446</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="G27">
-            <v>-0.91173391478696508</v>
-          </cell>
-          <cell r="H27">
-            <v>-0.91173391478696508</v>
-          </cell>
-          <cell r="I27">
-            <v>-0.91169999999999995</v>
+            <v>-0.94458740832705101</v>
           </cell>
         </row>
       </sheetData>
@@ -13838,20 +13728,20 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
     <col min="3" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="16.59765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
     <col min="10" max="15" width="9" style="2"/>
     <col min="16" max="16" width="9" style="2" customWidth="1"/>
     <col min="17" max="17" width="9" style="2"/>
-    <col min="18" max="18" width="14.59765625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="2" customWidth="1"/>
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13859,7 +13749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -13880,7 +13770,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>0</v>
       </c>
@@ -13907,7 +13797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -13932,7 +13822,7 @@
         <v>-0.97034571855375273</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -13957,7 +13847,7 @@
         <v>-0.94136615394180567</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -13982,7 +13872,7 @@
         <v>-0.91303710689220996</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -14007,7 +13897,7 @@
         <v>-0.88533549986447002</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -14032,7 +13922,7 @@
         <v>-0.85823931428861777</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -14057,7 +13947,7 @@
         <v>-0.83172753189026405</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -14082,7 +13972,7 @@
         <v>-0.8057800797993967</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -14107,7 +13997,7 @@
         <v>-0.78037777916565476</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -14132,7 +14022,7 @@
         <v>-0.75550229702550753</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -14157,7 +14047,7 @@
         <v>-0.73113610118741046</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -14182,7 +14072,7 @@
         <v>-0.70726241791981181</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -14207,7 +14097,7 @@
         <v>-0.68386519224401709</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -14232,7 +14122,7 @@
         <v>-0.66092905064954632</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -14257,7 +14147,7 @@
         <v>-0.63843926606389423</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -14282,7 +14172,7 @@
         <v>-0.61638172492162746</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -14307,7 +14197,7 @@
         <v>-0.594742896189693</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -14332,7 +14222,7 @@
         <v>-0.57350980221670644</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -14357,7 +14247,7 @@
         <v>-0.55266999128398908</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -14382,7 +14272,7 @@
         <v>-0.53221151174528558</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -14407,7 +14297,7 @@
         <v>-0.51212288765048952</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -14432,7 +14322,7 @@
         <v>-0.49239309575642065</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -14473,7 +14363,7 @@
         <v>1.53155517578125</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -14498,7 +14388,7 @@
         <v>-0.4539680501939668</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -14553,7 +14443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -14617,7 +14507,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -14673,7 +14563,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -14729,7 +14619,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -14785,7 +14675,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -14841,7 +14731,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -14897,7 +14787,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -14953,7 +14843,7 @@
         <v>1.5625E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -15009,7 +14899,7 @@
         <v>7.8125E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -15065,7 +14955,7 @@
         <v>3.90625E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -15121,7 +15011,7 @@
         <v>1.953125E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -15177,7 +15067,7 @@
         <v>9.765625E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -15233,7 +15123,7 @@
         <v>4.8828125E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -15289,7 +15179,7 @@
         <v>2.44140625E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -15345,7 +15235,7 @@
         <v>1.220703125E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -15370,7 +15260,7 @@
         <v>-0.18826780712477659</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -15395,7 +15285,7 @@
         <v>-0.17373184501143957</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -15420,7 +15310,7 @@
         <v>-0.15940310281277958</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -15445,7 +15335,7 @@
         <v>-0.14527647494505275</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -15470,7 +15360,7 @@
         <v>-0.13134702377063068</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -15495,7 +15385,7 @@
         <v>-0.11760997283184327</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -15520,7 +15410,7 @@
         <v>-0.10406070040461507</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -15545,7 +15435,7 @@
         <v>-9.0694733354627799E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -15570,7 +15460,7 @@
         <v>-7.7507741279788156E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -15595,7 +15485,7 @@
         <v>-6.4495530923756594E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -15620,7 +15510,7 @@
         <v>-5.1654040846199067E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -15645,7 +15535,7 @@
         <v>-3.8979336336279535E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -15670,7 +15560,7 @@
         <v>-2.6467604556702273E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -15695,7 +15585,7 @@
         <v>-1.4115149906357372E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -15720,7 +15610,7 @@
         <v>-1.9183895903154835E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -15745,7 +15635,7 @@
         <v>1.0126150613428364E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -15770,7 +15660,7 @@
         <v>2.2021840400458681E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -15795,7 +15685,7 @@
         <v>3.3771948809112273E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -15820,7 +15710,7 @@
         <v>4.5379647921213628E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -15845,7 +15735,7 @@
         <v>5.6848016402760049E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -15870,7 +15760,7 @@
         <v>6.8180042892478532E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -15895,7 +15785,7 @@
         <v>7.9378629245736188E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -15920,7 +15810,7 @@
         <v>9.0446593640868933E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -15945,7 +15835,7 @@
         <v>0.10138667355461189</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -15970,7 +15860,7 @@
         <v>0.11220152861294314</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -15995,7 +15885,7 @@
         <v>0.12289374332331765</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -16020,7 +15910,7 @@
         <v>0.13346582969394072</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -16045,7 +15935,7 @@
         <v>0.14392022974543023</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -16070,7 +15960,7 @@
         <v>0.1542593179199333</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -16095,7 +15985,7 @@
         <v>0.16448540339249251</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -16120,7 +16010,7 @@
         <v>0.17460073228920697</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -16145,7 +16035,7 @@
         <v>0.18460748981649622</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -16170,7 +16060,7 @@
         <v>0.19450780230554748</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -16195,7 +16085,7 @@
         <v>0.20430373917582201</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -16220,7 +16110,7 @@
         <v>0.21399731482129231</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -16245,7 +16135,7 @@
         <v>0.22359049042289758</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -16270,7 +16160,7 @@
         <v>0.23308517569052539</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -16295,7 +16185,7 @@
         <v>0.24248323053766435</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -16320,7 +16210,7 @@
         <v>0.25178646669171051</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -16345,7 +16235,7 @@
         <v>0.26099664924276472</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -16370,7 +16260,7 @@
         <v>0.27011549813361679</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -16395,7 +16285,7 @@
         <v>0.27914468959347766</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -16420,7 +16310,7 @@
         <v>0.28808585751789867</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -16445,7 +16335,7 @@
         <v>0.29694059479719387</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -16470,7 +16360,7 @@
         <v>0.30571045459557394</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -16495,7 +16385,7 @@
         <v>0.31439695158308767</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -16520,7 +16410,7 @@
         <v>0.32300156312237432</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -16545,7 +16435,7 @@
         <v>0.33152573041212635</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -16570,7 +16460,7 @@
         <v>0.3399708595890788</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -16595,7 +16485,7 @@
         <v>0.34833832279025134</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -16620,7 +16510,7 @@
         <v>0.35662945917709182</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -16645,7 +16535,7 @@
         <v>0.36484557592308797</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -16670,7 +16560,7 @@
         <v>0.37298794916634875</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>92</v>
       </c>
@@ -16695,7 +16585,7 @@
         <v>0.3810578249285797</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>93</v>
       </c>
@@ -16720,7 +16610,7 @@
         <v>0.38905642000181723</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>94</v>
       </c>
@@ -16745,7 +16635,7 @@
         <v>0.39698492280422032</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>95</v>
       </c>
@@ -16770,7 +16660,7 @@
         <v>0.40484449420616236</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>96</v>
       </c>
@@ -16795,7 +16685,7 @@
         <v>0.41263626832780764</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>97</v>
       </c>
@@ -16820,7 +16710,7 @@
         <v>0.42036135330930413</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>98</v>
       </c>
@@ -16845,7 +16735,7 @@
         <v>0.42802083205467428</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>99</v>
       </c>
@@ -16878,35 +16768,38 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD330CF1-DA2B-4430-82B5-2D46FF20A5B9}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5345AC35-4774-40C6-BF16-313675620095}">
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="5" max="5" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="82.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>36</v>
@@ -16915,7 +16808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>180</v>
       </c>
@@ -16929,13 +16822,13 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="21"/>
       <c r="D6" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -16943,7 +16836,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>78</v>
       </c>
@@ -16957,19 +16850,19 @@
         <v>80</v>
       </c>
       <c r="F7" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -17001,7 +16894,7 @@
         <v>-1.0750080124661276E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <f>A8+0.1</f>
         <v>4.0999999999999996</v>
@@ -17032,7 +16925,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <f t="shared" ref="A10:A12" si="3">A9+0.1</f>
         <v>4.1999999999999993</v>
@@ -17060,7 +16953,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <f t="shared" si="3"/>
         <v>4.2999999999999989</v>
@@ -17085,7 +16978,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <f t="shared" si="3"/>
         <v>4.3999999999999986</v>
@@ -17107,21 +17000,45 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D14" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>78</v>
       </c>
       <c r="F14" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I14" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D15" s="14">
         <f>D8</f>
         <v>4</v>
@@ -17138,27 +17055,152 @@
         <f>(E15-D15)/F15</f>
         <v>3.9000000000000106</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="I15" s="14">
+        <f>D8</f>
+        <v>4</v>
+      </c>
+      <c r="J15" s="14">
+        <f>D4</f>
+        <v>4</v>
+      </c>
+      <c r="K15" s="14">
+        <f>D9-D8</f>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="L15" s="14">
+        <f>(J15-I15)/K15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="14">
+        <f>D8</f>
+        <v>4</v>
+      </c>
+      <c r="O15" s="14">
+        <f>E4</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P15" s="14">
+        <f>D9-D8</f>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="Q15" s="14">
+        <f>(O15-N15)/P15</f>
+        <v>4.0000000000000178</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D17" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="I17" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="N17" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="O17" s="15"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D18" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="E18" s="14">
         <f>E8+F8*G15+G8*((G15*(G15-1))/2)+H8*((G15*(G15-1)*(G15-2))/6)+I8*((G15*(G15-1)*(G15-2)*(G15-3))/24)</f>
         <v>0.39499247355495709</v>
       </c>
+      <c r="I18" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J18" s="14">
+        <f>(1/K15)*(F8+((2*L15-1)/2)*G8+((3*(L15^2)-6*L15+2)/6)*H8+((2*(L15^3)-9*(L15^2)+11*L15-3)/12)*I8)</f>
+        <v>1.3683942251486589</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="O18" s="14">
+        <f>(1/(P15^2))*(G8+(Q15-1)*H8+((6*Q15^2-18*Q15+11)/12)*I8)</f>
+        <v>-0.35656028238193554</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D20" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D21" s="14">
+        <f>C4</f>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="E21" s="14">
+        <f>COS(D21+EXP(COS(D21)))</f>
+        <v>0.39499568104844979</v>
+      </c>
+      <c r="I21" s="14">
+        <f>D4</f>
+        <v>4</v>
+      </c>
+      <c r="J21" s="14">
+        <f>-SIN(I21+EXP(COS(I21)))*(1-SIN(I21)*EXP(COS(I21)))</f>
+        <v>1.3679753430261141</v>
+      </c>
+      <c r="N21" s="14">
+        <f>E4</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O21" s="14">
+        <f>-COS(N21+EXP(COS(N21)))*((1-SIN(N21)*EXP(COS(N21)))^2)-SIN(N21+EXP(COS(N21)))*EXP(COS(N21))*((SIN(N21)^2)-COS(N21))</f>
+        <v>-0.37278652494317288</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" s="14">
+        <f>ROUND(ABS(E18-E21), 4)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" s="14">
+        <f>ROUND(ABS(J18-J21), 4)</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="O23" s="14">
+        <f>ROUND(ABS(O18-O21), 4)</f>
+        <v>1.6199999999999999E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="N17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17172,23 +17214,23 @@
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
     <col min="3" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="16.59765625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="2" customWidth="1"/>
     <col min="12" max="17" width="9" style="2"/>
     <col min="18" max="18" width="9" style="2" customWidth="1"/>
     <col min="19" max="19" width="9" style="2"/>
     <col min="20" max="20" width="14" style="2" customWidth="1"/>
     <col min="21" max="21" width="9" style="2"/>
-    <col min="22" max="22" width="14.59765625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="2" customWidth="1"/>
     <col min="23" max="23" width="16" style="2" customWidth="1"/>
     <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17196,7 +17238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -17228,7 +17270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>0</v>
       </c>
@@ -17266,7 +17308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -17299,7 +17341,7 @@
         <v>-6.7461781163038186</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -17332,7 +17374,7 @@
         <v>-6.5042413373970707</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -17365,7 +17407,7 @@
         <v>-6.2735181966278883</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -17398,7 +17440,7 @@
         <v>-6.0533813591961056</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -17431,7 +17473,7 @@
         <v>-5.8432443272093417</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -17464,7 +17506,7 @@
         <v>-5.6425584194423628</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -17497,7 +17539,7 @@
         <v>-5.4508100005583628</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -17530,7 +17572,7 @@
         <v>-5.2675179370805028</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -17563,7 +17605,7 @@
         <v>-5.0922312596577388</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -17596,7 +17638,7 @@
         <v>-4.9245270131821588</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -17629,7 +17671,7 @@
         <v>-4.7640082781140549</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -17662,7 +17704,7 @@
         <v>-4.6103023479800074</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -17695,7 +17737,7 @@
         <v>-4.4630590494500524</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -17728,7 +17770,7 @@
         <v>-4.3219491926914353</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -17761,7 +17803,7 @@
         <v>-4.1866631408549839</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -17794,7 +17836,7 @@
         <v>-4.0569094885908124</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -17827,7 +17869,7 @@
         <v>-3.9324138404253239</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -17860,7 +17902,7 @@
         <v>-3.8129176806732077</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -17893,7 +17935,7 @@
         <v>-3.6981773273161083</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -17926,7 +17968,7 @@
         <v>-3.587962962962961</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -17959,7 +18001,7 @@
         <v>-3.4820577366234695</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -18011,7 +18053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -18044,7 +18086,7 @@
         <v>-3.2823671871701743</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -18110,7 +18152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -18186,7 +18228,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -18258,7 +18300,7 @@
         <v>ЕЩЁ</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -18330,7 +18372,7 @@
         <v>ЕЩЁ</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -18402,7 +18444,7 @@
         <v>ЕЩЁ</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -18474,7 +18516,7 @@
         <v>ВСЁ</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -18507,7 +18549,7 @@
         <v>-2.6924827562060138</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -18540,7 +18582,7 @@
         <v>-2.6200686145515113</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -18573,7 +18615,7 @@
         <v>-2.5502331099626345</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -18606,7 +18648,7 @@
         <v>-2.4828642053528518</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -18639,7 +18681,7 @@
         <v>-2.4178555624771429</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -18672,7 +18714,7 @@
         <v>-2.3551062112257033</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -18705,7 +18747,7 @@
         <v>-2.2945202404185756</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -18738,7 +18780,7 @@
         <v>-2.2360065085562408</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -18771,7 +18813,7 @@
         <v>-2.1794783731026079</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -18804,7 +18846,7 @@
         <v>-2.1248534369878689</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -18837,7 +18879,7 @@
         <v>-2.0720533111203645</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -18870,7 +18912,7 @@
         <v>-2.0210033917897179</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -18903,7 +18945,7 @@
         <v>-1.9716326519288498</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -18936,7 +18978,7 @@
         <v>-1.923873445280786</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -18969,7 +19011,7 @@
         <v>-1.8776613225880183</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -19002,7 +19044,7 @@
         <v>-1.8329348589881509</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -19035,7 +19077,7 @@
         <v>-1.7896354918602162</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -19068,7 +19110,7 @@
         <v>-1.7477073684217679</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -19101,7 +19143,7 @@
         <v>-1.7070972024281783</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -19134,7 +19176,7 @@
         <v>-1.6677541393727311</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -19167,7 +19209,7 @@
         <v>-1.629629629629628</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -19200,7 +19242,7 @@
         <v>-1.5926773090220654</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -19233,7 +19275,7 @@
         <v>-1.556852886334511</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -19266,7 +19308,7 @@
         <v>-1.5221140373223792</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -19299,7 +19341,7 @@
         <v>-1.488420304803785</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -19332,7 +19374,7 @@
         <v>-1.4557330044471088</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -19365,7 +19407,7 @@
         <v>-1.4240151358949706</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -19398,7 +19440,7 @@
         <v>-1.3932312988900231</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -19431,7 +19473,7 @@
         <v>-1.3633476140909679</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -19464,7 +19506,7 @@
         <v>-1.334331648288426</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -19497,7 +19539,7 @@
         <v>-1.3061523437499984</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -19530,7 +19572,7 @@
         <v>-1.2787799514420801</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -19563,7 +19605,7 @@
         <v>-1.2521859678928839</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -19596,7 +19638,7 @@
         <v>-1.2263430754768212</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -19629,7 +19671,7 @@
         <v>-1.2012250859149078</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -19662,7 +19704,7 @@
         <v>-1.1768068867993722</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -19695,7 +19737,7 @@
         <v>-1.1530643909631766</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -19728,7 +19770,7 @@
         <v>-1.1299744885267962</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -19761,7 +19803,7 @@
         <v>-1.1075150014654374</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -19794,7 +19836,7 @@
         <v>-1.0856646405499284</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -19827,7 +19869,7 @@
         <v>-1.064402964523891</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -19860,7 +19902,7 @@
         <v>-1.0437103413885043</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -19893,7 +19935,7 @@
         <v>-1.0235679116742962</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -19926,7 +19968,7 @@
         <v>-1.0039575535869463</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -19959,7 +20001,7 @@
         <v>-0.98486184992113912</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -19992,7 +20034,7 @@
         <v>-0.96626405664306425</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -20025,7 +20067,7 @@
         <v>-0.94814807304828763</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -20058,7 +20100,7 @@
         <v>-0.93049841340743833</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -20091,7 +20133,7 @@
         <v>-0.91330018001747715</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -20124,7 +20166,7 @@
         <v>-0.8965390375813117</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -20157,7 +20199,7 @@
         <v>-0.88020118884316312</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -20190,7 +20232,7 @@
         <v>-0.86427335141143868</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -20223,7 +20265,7 @@
         <v>-0.84874273570494529</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -20256,7 +20298,7 @@
         <v>-0.83359702396205737</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -20289,7 +20331,7 @@
         <v>-0.81882435025603717</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -20322,7 +20364,7 @@
         <v>-0.80441328146301094</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -20355,7 +20397,7 @@
         <v>-0.79035279913224121</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -20388,7 +20430,7 @@
         <v>-0.77663228221124403</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -20421,7 +20463,7 @@
         <v>-0.76324149058104318</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -20454,7 +20496,7 @@
         <v>-0.75017054935941196</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -20487,7 +20529,7 @@
         <v>-0.73740993393236609</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -20520,7 +20562,7 @@
         <v>-0.72495045567641769</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>92</v>
       </c>
@@ -20553,7 +20595,7 @@
         <v>-0.71278324833622586</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>93</v>
       </c>
@@ -20586,7 +20628,7 @@
         <v>-0.70089975502425883</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>94</v>
       </c>
@@ -20619,7 +20661,7 @@
         <v>-0.68929171581095194</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>95</v>
       </c>
@@ -20652,7 +20694,7 @@
         <v>-0.67795115587559729</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>96</v>
       </c>
@@ -20685,7 +20727,7 @@
         <v>-0.66687037418984541</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>97</v>
       </c>
@@ -20718,7 +20760,7 @@
         <v>-0.65604193270724787</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>98</v>
       </c>
@@ -20751,7 +20793,7 @@
         <v>-0.64545864603372549</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>99</v>
       </c>
@@ -20799,18 +20841,18 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.73046875" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.265625" customWidth="1"/>
-    <col min="14" max="17" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="14" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -20818,7 +20860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -20868,7 +20910,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0.28639999999999999</v>
       </c>
@@ -20916,7 +20958,7 @@
       </c>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.1127</v>
       </c>
@@ -20975,7 +21017,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>-8.9961199999999995</v>
       </c>
@@ -21034,7 +21076,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2.7130000000000001E-2</v>
       </c>
@@ -21093,7 +21135,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I8" s="5">
         <v>3</v>
       </c>
@@ -21134,7 +21176,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>50</v>
       </c>
@@ -21185,7 +21227,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>-8.9961199999999995</v>
       </c>
@@ -21245,7 +21287,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2.7130000000000001E-2</v>
       </c>
@@ -21301,7 +21343,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1.1127</v>
       </c>
@@ -21360,7 +21402,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>0.28639999999999999</v>
       </c>
@@ -21420,7 +21462,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I14" s="5">
         <v>9</v>
       </c>
@@ -21461,7 +21503,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>53</v>
       </c>
@@ -21508,7 +21550,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ABS(A10)&gt;ABS(B10)+ABS(C10)+ABS(D10), "Да", "Нет")</f>
         <v>Да</v>
@@ -21565,7 +21607,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I17" s="5">
         <v>12</v>
       </c>
@@ -21606,7 +21648,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>36</v>
@@ -21660,7 +21702,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
@@ -21720,7 +21762,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I20" s="5">
         <v>15</v>
       </c>
@@ -21761,7 +21803,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>54</v>
       </c>
@@ -21805,7 +21847,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I22" s="5">
         <v>17</v>
       </c>
@@ -21846,7 +21888,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" ref="A23:D26" si="9">A10*B$19</f>
         <v>-8.6749447778165933</v>
@@ -21907,7 +21949,7 @@
         <v>ТОЧНО</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="9"/>
         <v>2.6161417569148058E-2</v>
@@ -21968,7 +22010,7 @@
         <v>ТОЧНО</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="9"/>
         <v>1.0729749107700346</v>
@@ -22029,7 +22071,7 @@
         <v>ТОЧНО</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="9"/>
         <v>0.27617508263192048</v>
@@ -22068,18 +22110,18 @@
       <selection activeCell="F35" sqref="F35:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.73046875" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.265625" customWidth="1"/>
-    <col min="14" max="17" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="14" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -22087,7 +22129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -22137,7 +22179,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0.28639999999999999</v>
       </c>
@@ -22185,7 +22227,7 @@
       </c>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.1127</v>
       </c>
@@ -22244,7 +22286,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>-8.9961199999999995</v>
       </c>
@@ -22303,7 +22345,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2.7130000000000001E-2</v>
       </c>
@@ -22362,7 +22404,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I8" s="5">
         <v>3</v>
       </c>
@@ -22403,7 +22445,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>50</v>
       </c>
@@ -22454,7 +22496,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>-8.9961199999999995</v>
       </c>
@@ -22514,7 +22556,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2.7130000000000001E-2</v>
       </c>
@@ -22570,7 +22612,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1.1127</v>
       </c>
@@ -22629,7 +22671,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>0.28639999999999999</v>
       </c>
@@ -22689,7 +22731,7 @@
         <v>НЕТОЧНО</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I14" s="5">
         <v>9</v>
       </c>
@@ -22730,7 +22772,7 @@
         <v>ТОЧНО</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>53</v>
       </c>
@@ -22780,7 +22822,7 @@
         <v>ТОЧНО</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ABS(A10)&gt;ABS(B10)+ABS(C10)+ABS(D10), "Да", "Нет")</f>
         <v>Да</v>
@@ -22841,7 +22883,7 @@
         <v>ТОЧНО</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I17" s="5">
         <v>12</v>
       </c>
@@ -22882,7 +22924,7 @@
         <v>ТОЧНО</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>36</v>
@@ -22936,7 +22978,7 @@
         <v>ТОЧНО</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
@@ -22996,7 +23038,7 @@
         <v>ТОЧНО</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I20" s="5">
         <v>15</v>
       </c>
@@ -23037,7 +23079,7 @@
         <v>ТОЧНО</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>54</v>
       </c>
@@ -23081,7 +23123,7 @@
         <v>ТОЧНО</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I22" s="5">
         <v>17</v>
       </c>
@@ -23122,7 +23164,7 @@
         <v>ТОЧНО</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" ref="A23:D26" si="9">A10*B$19</f>
         <v>-8.6749449075932681</v>
@@ -23183,7 +23225,7 @@
         <v>ТОЧНО</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="9"/>
         <v>2.6161417960521356E-2</v>
@@ -23244,7 +23286,7 @@
         <v>ТОЧНО</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="9"/>
         <v>1.0729749268216775</v>
@@ -23305,7 +23347,7 @@
         <v>ТОЧНО</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="9"/>
         <v>0.27617508676348379</v>
@@ -23344,16 +23386,16 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.265625" customWidth="1"/>
-    <col min="13" max="13" width="16.3984375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -23364,7 +23406,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -23400,7 +23442,7 @@
       </c>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0.28639999999999999</v>
       </c>
@@ -23440,7 +23482,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.1127</v>
       </c>
@@ -23486,7 +23528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>-8.9961199999999995</v>
       </c>
@@ -23530,7 +23572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2.7130000000000001E-2</v>
       </c>
@@ -23573,7 +23615,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G8" s="17"/>
       <c r="H8" s="5">
         <f>-I8/I$7</f>
@@ -23602,7 +23644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G9" s="16">
         <v>2</v>
       </c>
@@ -23639,7 +23681,7 @@
         <v>4.7198592310018102</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G10" s="19"/>
       <c r="H10" s="5">
         <f>-J10/J$11</f>
@@ -23674,7 +23716,7 @@
         <v>-4.558998968799882</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G11" s="19"/>
       <c r="H11" s="6" t="s">
         <v>65</v>
@@ -23708,7 +23750,7 @@
         <v>-8.9722839886973489</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G12" s="16">
         <v>3</v>
       </c>
@@ -23745,7 +23787,7 @@
         <v>13.672876916588567</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G13" s="17"/>
       <c r="H13" s="6" t="s">
         <v>65</v>
@@ -23779,7 +23821,7 @@
         <v>-9.8698924615298687</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G14" s="5">
         <v>4</v>
       </c>
@@ -23815,12 +23857,12 @@
         <v>13.653960104224252</v>
       </c>
     </row>
-    <row r="17" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G19" s="5" t="s">
         <v>39</v>
       </c>
@@ -23837,7 +23879,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F20" s="5" t="s">
         <v>68</v>
       </c>
@@ -23862,7 +23904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G21" s="5">
         <f>N14/L14</f>
         <v>0.86669892825190975</v>
@@ -23880,7 +23922,7 @@
         <v>1.9642984512873243</v>
       </c>
     </row>
-    <row r="22" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G22" s="10" t="s">
         <v>39</v>
       </c>
@@ -23894,12 +23936,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G25" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G27" s="5">
         <f>A4*J$20</f>
         <v>0.2761750764486896</v>
@@ -23921,7 +23963,7 @@
         <v>-13.390310000000001</v>
       </c>
     </row>
-    <row r="28" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G28" s="5">
         <f t="shared" ref="G28:G30" si="6">A5*J$20</f>
         <v>1.0729748867474056</v>
@@ -23943,7 +23985,7 @@
         <v>6.7320400000000014</v>
       </c>
     </row>
-    <row r="29" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G29" s="5">
         <f t="shared" si="6"/>
         <v>-8.6749445835949217</v>
@@ -23965,7 +24007,7 @@
         <v>-1.2571999999999997</v>
       </c>
     </row>
-    <row r="30" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G30" s="5">
         <f t="shared" si="6"/>
         <v>2.6161416983425105E-2</v>
@@ -24009,24 +24051,24 @@
       <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>70</v>
       </c>
@@ -24061,7 +24103,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>77</v>
       </c>
@@ -24100,7 +24142,7 @@
         <v>-1.5707963267948966</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" s="7">
         <v>1</v>
       </c>
@@ -24137,7 +24179,7 @@
         <v>-1.119769514998634</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>78</v>
       </c>
@@ -24180,7 +24222,7 @@
         <v>-0.92729521800161196</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>80</v>
       </c>
@@ -24223,7 +24265,7 @@
         <v>-0.77539749661075275</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D8" s="7">
         <v>4</v>
       </c>
@@ -24260,7 +24302,7 @@
         <v>-0.64350110879328393</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>51</v>
       </c>
@@ -24304,7 +24346,7 @@
         <v>-0.52359877559829837</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D10" s="7">
         <v>6</v>
       </c>
@@ -24341,7 +24383,7 @@
         <v>-0.41151684606748745</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>169</v>
       </c>
@@ -24384,7 +24426,7 @@
         <v>-0.30469265401539686</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>172</v>
       </c>
@@ -24427,7 +24469,7 @@
         <v>-0.20135792079033007</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>173</v>
       </c>
@@ -24467,7 +24509,7 @@
         <v>-0.10016742116155898</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D14" s="7">
         <v>10</v>
       </c>
@@ -24504,7 +24546,7 @@
         <v>8.8817841970012523E-16</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>174</v>
       </c>
@@ -24544,7 +24586,7 @@
         <v>0.10016742116156077</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>175</v>
       </c>
@@ -24584,7 +24626,7 @@
         <v>0.20135792079033188</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>176</v>
       </c>
@@ -24624,7 +24666,7 @@
         <v>0.30469265401539875</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D18" s="7">
         <v>14</v>
       </c>
@@ -24661,7 +24703,7 @@
         <v>0.41151684606748939</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>177</v>
       </c>
@@ -24701,7 +24743,7 @@
         <v>0.52359877559830037</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>178</v>
       </c>
@@ -24741,7 +24783,7 @@
         <v>0.64350110879328615</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>179</v>
       </c>
@@ -24758,7 +24800,7 @@
         <v>0.77539749661075519</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
         <v>8</v>
       </c>
@@ -24781,7 +24823,7 @@
         <v>0.92729521800161496</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D23" s="7"/>
       <c r="E23" s="7">
         <f>E15</f>
@@ -24804,7 +24846,7 @@
         <v>1.1197695149986382</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K24" s="13">
         <f t="shared" si="11"/>
         <v>-0.49999999999999917</v>
@@ -24818,13 +24860,13 @@
         <v>1.5707963267948966</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D25" s="7" t="s">
         <v>54</v>
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D26" s="7">
         <f>COS(E23+0.5)+F23</f>
         <v>1</v>
@@ -24834,7 +24876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D27" s="7">
         <f>SIN(F23)-2*E23</f>
         <v>1.9999401131126611</v>
@@ -24858,19 +24900,19 @@
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="30" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="30" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="11" customWidth="1"/>
-    <col min="48" max="48" width="12.1328125" customWidth="1"/>
+    <col min="48" max="48" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>69</v>
       </c>
@@ -24882,7 +24924,7 @@
       <c r="S1" s="15"/>
       <c r="T1" s="15"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P2" s="15" t="s">
         <v>83</v>
       </c>
@@ -24891,7 +24933,7 @@
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>84</v>
       </c>
@@ -24902,7 +24944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>85</v>
       </c>
@@ -24920,7 +24962,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P5" s="7" t="s">
         <v>87</v>
       </c>
@@ -24928,7 +24970,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>89</v>
       </c>
@@ -24942,7 +24984,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>93</v>
       </c>
@@ -24956,7 +24998,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>97</v>
       </c>
@@ -24970,7 +25012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>101</v>
       </c>
@@ -24987,7 +25029,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>78</v>
       </c>
@@ -25014,7 +25056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>-1</v>
       </c>
@@ -25049,7 +25091,7 @@
         <v>0.82009637708515704</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>A12+0.01</f>
         <v>-0.99</v>
@@ -25085,7 +25127,7 @@
         <v>0.57222542095000739</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f t="shared" ref="A14:A29" si="5">A13+0.01</f>
         <v>-0.98</v>
@@ -25122,7 +25164,7 @@
         <v>-8.7232332468545337E-11</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f t="shared" si="5"/>
         <v>-0.97</v>
@@ -25159,7 +25201,7 @@
         <v>8.9613205744853985E-11</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f t="shared" si="5"/>
         <v>-0.96</v>
@@ -25196,7 +25238,7 @@
         <v>-1.0224714595568207</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f t="shared" si="5"/>
         <v>-0.95</v>
@@ -25233,7 +25275,7 @@
         <v>0.17752854044317914</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f t="shared" si="5"/>
         <v>-0.94</v>
@@ -25270,7 +25312,7 @@
         <v>1.6401927541703141</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f t="shared" si="5"/>
         <v>-0.92999999999999994</v>
@@ -25307,7 +25349,7 @@
         <v>1.1444508419000148</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f t="shared" si="5"/>
         <v>-0.91999999999999993</v>
@@ -25344,7 +25386,7 @@
         <v>-1.4613493484018745</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f t="shared" si="5"/>
         <v>-0.90999999999999992</v>
@@ -25381,7 +25423,7 @@
         <v>-0.78314664672864254</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f t="shared" si="5"/>
         <v>-0.89999999999999991</v>
@@ -25418,7 +25460,7 @@
         <v>0.12148261511686005</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f t="shared" si="5"/>
         <v>-0.8899999999999999</v>
@@ -25455,7 +25497,7 @@
         <v>1.1223823762360603</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f t="shared" si="5"/>
         <v>-0.87999999999999989</v>
@@ -25492,7 +25534,7 @@
         <v>0.69967626883673728</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f t="shared" si="5"/>
         <v>-0.86999999999999988</v>
@@ -25528,7 +25570,7 @@
         <v>STOP</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <f t="shared" si="5"/>
         <v>-0.85999999999999988</v>
@@ -25546,7 +25588,7 @@
         <v>-0.5102940328869231</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <f t="shared" si="5"/>
         <v>-0.84999999999999987</v>
@@ -25567,7 +25609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <f t="shared" si="5"/>
         <v>-0.83999999999999986</v>
@@ -25591,7 +25633,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <f t="shared" si="5"/>
         <v>-0.82999999999999985</v>
@@ -25617,7 +25659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <f>A29+0.01</f>
         <v>-0.81999999999999984</v>
@@ -25635,7 +25677,7 @@
         <v>-0.57236352085016762</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <f t="shared" ref="A31:A94" si="17">A30+0.01</f>
         <v>-0.80999999999999983</v>
@@ -25656,7 +25698,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <f t="shared" si="17"/>
         <v>-0.79999999999999982</v>
@@ -25681,7 +25723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <f t="shared" si="17"/>
         <v>-0.78999999999999981</v>
@@ -25706,7 +25748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <f t="shared" si="17"/>
         <v>-0.7799999999999998</v>
@@ -25724,7 +25766,7 @@
         <v>-0.6257795138864809</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <f t="shared" si="17"/>
         <v>-0.7699999999999998</v>
@@ -25742,7 +25784,7 @@
         <v>-0.6380438856379711</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <f t="shared" si="17"/>
         <v>-0.75999999999999979</v>
@@ -25760,7 +25802,7 @@
         <v>-0.6499230723708771</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <f t="shared" si="17"/>
         <v>-0.74999999999999978</v>
@@ -25778,7 +25820,7 @@
         <v>-0.6614378277661479</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <f t="shared" si="17"/>
         <v>-0.73999999999999977</v>
@@ -25796,7 +25838,7 @@
         <v>-0.67260686883200971</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <f t="shared" si="17"/>
         <v>-0.72999999999999976</v>
@@ -25814,7 +25856,7 @@
         <v>-0.68344714499367132</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <f t="shared" si="17"/>
         <v>-0.71999999999999975</v>
@@ -25832,7 +25874,7 @@
         <v>-0.69397406291589914</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <f t="shared" si="17"/>
         <v>-0.70999999999999974</v>
@@ -25850,7 +25892,7 @@
         <v>-0.70420167565833036</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <f t="shared" si="17"/>
         <v>-0.69999999999999973</v>
@@ -25868,7 +25910,7 @@
         <v>-0.71414284285428531</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <f t="shared" si="17"/>
         <v>-0.68999999999999972</v>
@@ -25886,7 +25928,7 @@
         <v>-0.72380936716790312</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <f t="shared" si="17"/>
         <v>-0.67999999999999972</v>
@@ -25904,7 +25946,7 @@
         <v>-0.73321211119293472</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <f t="shared" si="17"/>
         <v>-0.66999999999999971</v>
@@ -25922,7 +25964,7 @@
         <v>-0.74236109811869877</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <f t="shared" si="17"/>
         <v>-0.6599999999999997</v>
@@ -25940,7 +25982,7 @@
         <v>-0.75126559883971822</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <f t="shared" si="17"/>
         <v>-0.64999999999999969</v>
@@ -25958,7 +26000,7 @@
         <v>-0.75993420767853337</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <f t="shared" si="17"/>
         <v>-0.63999999999999968</v>
@@ -25976,7 +26018,7 @@
         <v>-0.76837490849194212</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <f t="shared" si="17"/>
         <v>-0.62999999999999967</v>
@@ -25994,7 +26036,7 @@
         <v>-0.77659513261415725</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <f t="shared" si="17"/>
         <v>-0.61999999999999966</v>
@@ -26012,7 +26054,7 @@
         <v>-0.78460180983732153</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <f t="shared" si="17"/>
         <v>-0.60999999999999965</v>
@@ -26030,7 +26072,7 @@
         <v>-0.79240141342630144</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <f t="shared" si="17"/>
         <v>-0.59999999999999964</v>
@@ -26048,7 +26090,7 @@
         <v>-0.80000000000000027</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <f t="shared" si="17"/>
         <v>-0.58999999999999964</v>
@@ -26066,7 +26108,7 @@
         <v>-0.80740324497737825</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <f t="shared" si="17"/>
         <v>-0.57999999999999963</v>
@@ -26084,7 +26126,7 @@
         <v>-0.81461647417665228</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <f t="shared" si="17"/>
         <v>-0.56999999999999962</v>
@@ -26102,7 +26144,7 @@
         <v>-0.82164469206585911</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <f t="shared" si="17"/>
         <v>-0.55999999999999961</v>
@@ -26120,7 +26162,7 @@
         <v>-0.8284926070883194</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <f t="shared" si="17"/>
         <v>-0.5499999999999996</v>
@@ -26138,7 +26180,7 @@
         <v>-0.83516465442450361</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <f t="shared" si="17"/>
         <v>-0.53999999999999959</v>
@@ -26156,7 +26198,7 @@
         <v>-0.84166501650003278</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <f t="shared" si="17"/>
         <v>-0.52999999999999958</v>
@@ -26174,7 +26216,7 @@
         <v>-0.84799764150615453</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <f t="shared" si="17"/>
         <v>-0.51999999999999957</v>
@@ -26192,7 +26234,7 @@
         <v>-0.85416626016250519</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <f t="shared" si="17"/>
         <v>-0.50999999999999956</v>
@@ -26210,7 +26252,7 @@
         <v>-0.86017440092111574</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <f t="shared" si="17"/>
         <v>-0.49999999999999956</v>
@@ -26228,7 +26270,7 @@
         <v>-0.86602540378443893</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <f t="shared" si="17"/>
         <v>-0.48999999999999955</v>
@@ -26246,7 +26288,7 @@
         <v>-0.87172243288790063</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <f t="shared" si="17"/>
         <v>-0.47999999999999954</v>
@@ -26264,7 +26306,7 @@
         <v>-0.87726848797845269</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <f t="shared" si="17"/>
         <v>-0.46999999999999953</v>
@@ -26282,7 +26324,7 @@
         <v>-0.88266641490429465</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <f t="shared" si="17"/>
         <v>-0.45999999999999952</v>
@@ -26300,7 +26342,7 @@
         <v>-0.88791891521692479</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <f t="shared" si="17"/>
         <v>-0.44999999999999951</v>
@@ -26318,7 +26360,7 @@
         <v>-0.89302855497458777</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <f t="shared" si="17"/>
         <v>-0.4399999999999995</v>
@@ -26336,7 +26378,7 @@
         <v>-0.89799777282574622</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <f t="shared" si="17"/>
         <v>-0.42999999999999949</v>
@@ -26354,7 +26396,7 @@
         <v>-0.90282888744213341</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <f t="shared" si="17"/>
         <v>-0.41999999999999948</v>
@@ -26372,7 +26414,7 @@
         <v>-0.9075241043630744</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <f t="shared" si="17"/>
         <v>-0.40999999999999948</v>
@@ -26390,7 +26432,7 @@
         <v>-0.9120855223058858</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <f t="shared" si="17"/>
         <v>-0.39999999999999947</v>
@@ -26408,7 +26450,7 @@
         <v>-0.91651513899116821</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <f t="shared" si="17"/>
         <v>-0.38999999999999946</v>
@@ -26426,7 +26468,7 @@
         <v>-0.92081485652654438</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <f t="shared" si="17"/>
         <v>-0.37999999999999945</v>
@@ -26444,7 +26486,7 @@
         <v>-0.92498648638777436</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <f t="shared" si="17"/>
         <v>-0.36999999999999944</v>
@@ -26462,7 +26504,7 @@
         <v>-0.92903175403212157</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <f t="shared" si="17"/>
         <v>-0.35999999999999943</v>
@@ -26480,7 +26522,7 @@
         <v>-0.93295230317524824</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <f t="shared" si="17"/>
         <v>-0.34999999999999942</v>
@@ -26498,7 +26540,7 @@
         <v>-0.93674969975975997</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <f t="shared" si="17"/>
         <v>-0.33999999999999941</v>
@@ -26516,7 +26558,7 @@
         <v>-0.94042543564070002</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <f t="shared" si="17"/>
         <v>-0.3299999999999994</v>
@@ -26534,7 +26576,7 @@
         <v>-0.94398093201081157</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <f t="shared" si="17"/>
         <v>-0.3199999999999994</v>
@@ -26552,7 +26594,7 @@
         <v>-0.94741754258616107</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <f t="shared" si="17"/>
         <v>-0.30999999999999939</v>
@@ -26570,7 +26612,7 @@
         <v>-0.95073655657074652</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <f t="shared" si="17"/>
         <v>-0.29999999999999938</v>
@@ -26588,7 +26630,7 @@
         <v>-0.95393920141694588</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <f t="shared" si="17"/>
         <v>-0.28999999999999937</v>
@@ -26606,7 +26648,7 @@
         <v>-0.95702664539708626</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <f t="shared" si="17"/>
         <v>-0.27999999999999936</v>
@@ -26624,7 +26666,7 @@
         <v>-0.96000000000000019</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <f t="shared" si="17"/>
         <v>-0.26999999999999935</v>
@@ -26642,7 +26684,7 @@
         <v>-0.96286032216516237</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <f t="shared" si="17"/>
         <v>-0.25999999999999934</v>
@@ -26660,7 +26702,7 @@
         <v>-0.96560861636586504</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <f t="shared" si="17"/>
         <v>-0.24999999999999933</v>
@@ -26678,7 +26720,7 @@
         <v>-0.96824583655185437</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <f t="shared" si="17"/>
         <v>-0.23999999999999932</v>
@@ -26696,7 +26738,7 @@
         <v>-0.97077288796092798</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <f t="shared" si="17"/>
         <v>-0.22999999999999932</v>
@@ -26714,7 +26756,7 @@
         <v>-0.97319062880814888</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <f t="shared" si="17"/>
         <v>-0.21999999999999931</v>
@@ -26732,7 +26774,7 @@
         <v>-0.97549987186057607</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <f t="shared" si="17"/>
         <v>-0.2099999999999993</v>
@@ -26750,7 +26792,7 @@
         <v>-0.97770138590471489</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <f t="shared" si="17"/>
         <v>-0.19999999999999929</v>
@@ -26768,7 +26810,7 @@
         <v>-0.97979589711327142</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <f t="shared" si="17"/>
         <v>-0.18999999999999928</v>
@@ -26786,7 +26828,7 @@
         <v>-0.98178409031721448</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <f t="shared" si="17"/>
         <v>-0.17999999999999927</v>
@@ -26804,7 +26846,7 @@
         <v>-0.9836666101886351</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <f t="shared" ref="A95:A158" si="21">A94+0.01</f>
         <v>-0.16999999999999926</v>
@@ -26822,7 +26864,7 @@
         <v>-0.98544406233941062</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <f t="shared" si="21"/>
         <v>-0.15999999999999925</v>
@@ -26840,7 +26882,7 @@
         <v>-0.98711701434024546</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <f t="shared" si="21"/>
         <v>-0.14999999999999925</v>
@@ -26858,7 +26900,7 @@
         <v>-0.9886859966642596</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <f t="shared" si="21"/>
         <v>-0.13999999999999924</v>
@@ -26876,7 +26918,7 @@
         <v>-0.99015150355892512</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <f t="shared" si="21"/>
         <v>-0.12999999999999923</v>
@@ -26894,7 +26936,7 @@
         <v>-0.99151399384980954</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <f t="shared" si="21"/>
         <v>-0.11999999999999923</v>
@@ -26912,7 +26954,7 @@
         <v>-0.99277389167926855</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <f t="shared" si="21"/>
         <v>-0.10999999999999924</v>
@@ -26930,7 +26972,7 @@
         <v>-0.99393158718294095</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <f t="shared" si="21"/>
         <v>-9.9999999999999242E-2</v>
@@ -26948,7 +26990,7 @@
         <v>-0.99498743710661997</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <f t="shared" si="21"/>
         <v>-8.9999999999999247E-2</v>
@@ -26966,7 +27008,7 @@
         <v>-0.99594176536582701</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <f t="shared" si="21"/>
         <v>-7.9999999999999252E-2</v>
@@ -26984,7 +27026,7 @@
         <v>-0.99679486355016911</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <f t="shared" si="21"/>
         <v>-6.9999999999999257E-2</v>
@@ -27002,7 +27044,7 @@
         <v>-0.99754699137434122</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <f t="shared" si="21"/>
         <v>-5.9999999999999255E-2</v>
@@ -27020,7 +27062,7 @@
         <v>-0.99819837707742243</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <f t="shared" si="21"/>
         <v>-4.9999999999999253E-2</v>
@@ -27038,7 +27080,7 @@
         <v>-0.99874921777190895</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <f t="shared" si="21"/>
         <v>-3.9999999999999251E-2</v>
@@ -27056,7 +27098,7 @@
         <v>-0.9991996797437438</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <f t="shared" si="21"/>
         <v>-2.9999999999999249E-2</v>
@@ -27074,7 +27116,7 @@
         <v>-0.99954989870441191</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <f t="shared" si="21"/>
         <v>-1.9999999999999248E-2</v>
@@ -27092,7 +27134,7 @@
         <v>-0.99979997999599901</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <f t="shared" si="21"/>
         <v>-9.9999999999992473E-3</v>
@@ -27110,7 +27152,7 @@
         <v>-0.99994999874993751</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <f t="shared" si="21"/>
         <v>7.5286998857393428E-16</v>
@@ -27128,7 +27170,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <f t="shared" si="21"/>
         <v>1.0000000000000753E-2</v>
@@ -27146,7 +27188,7 @@
         <v>-0.99994999874993751</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <f t="shared" si="21"/>
         <v>2.0000000000000753E-2</v>
@@ -27164,7 +27206,7 @@
         <v>-0.99979997999599901</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <f t="shared" si="21"/>
         <v>3.0000000000000755E-2</v>
@@ -27182,7 +27224,7 @@
         <v>-0.9995498987044118</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <f t="shared" si="21"/>
         <v>4.0000000000000757E-2</v>
@@ -27200,7 +27242,7 @@
         <v>-0.99919967974374369</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <f t="shared" si="21"/>
         <v>5.0000000000000759E-2</v>
@@ -27218,7 +27260,7 @@
         <v>-0.99874921777190895</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <f t="shared" si="21"/>
         <v>6.0000000000000761E-2</v>
@@ -27236,7 +27278,7 @@
         <v>-0.99819837707742243</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <f t="shared" si="21"/>
         <v>7.0000000000000756E-2</v>
@@ -27254,7 +27296,7 @@
         <v>-0.99754699137434111</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <f t="shared" si="21"/>
         <v>8.0000000000000751E-2</v>
@@ -27272,7 +27314,7 @@
         <v>-0.996794863550169</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <f t="shared" si="21"/>
         <v>9.0000000000000746E-2</v>
@@ -27290,7 +27332,7 @@
         <v>-0.9959417653658269</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <f t="shared" si="21"/>
         <v>0.10000000000000074</v>
@@ -27308,7 +27350,7 @@
         <v>-0.99498743710661985</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <f t="shared" si="21"/>
         <v>0.11000000000000074</v>
@@ -27326,7 +27368,7 @@
         <v>-0.99393158718294083</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <f t="shared" si="21"/>
         <v>0.12000000000000073</v>
@@ -27344,7 +27386,7 @@
         <v>-0.99277389167926844</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <f t="shared" si="21"/>
         <v>0.13000000000000073</v>
@@ -27362,7 +27404,7 @@
         <v>-0.99151399384980943</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <f t="shared" si="21"/>
         <v>0.14000000000000073</v>
@@ -27380,7 +27422,7 @@
         <v>-0.99015150355892501</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <f t="shared" si="21"/>
         <v>0.15000000000000074</v>
@@ -27398,7 +27440,7 @@
         <v>-0.98868599666425938</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <f t="shared" si="21"/>
         <v>0.16000000000000075</v>
@@ -27416,7 +27458,7 @@
         <v>-0.98711701434024512</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <f t="shared" si="21"/>
         <v>0.17000000000000076</v>
@@ -27434,7 +27476,7 @@
         <v>-0.9854440623394104</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <f t="shared" si="21"/>
         <v>0.18000000000000077</v>
@@ -27452,7 +27494,7 @@
         <v>-0.98366661018863488</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <f t="shared" si="21"/>
         <v>0.19000000000000078</v>
@@ -27470,7 +27512,7 @@
         <v>-0.98178409031721414</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <f t="shared" si="21"/>
         <v>0.20000000000000079</v>
@@ -27488,7 +27530,7 @@
         <v>-0.97979589711327109</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <f t="shared" si="21"/>
         <v>0.2100000000000008</v>
@@ -27506,7 +27548,7 @@
         <v>-0.97770138590471456</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <f t="shared" si="21"/>
         <v>0.22000000000000081</v>
@@ -27524,7 +27566,7 @@
         <v>-0.97549987186057574</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <f t="shared" si="21"/>
         <v>0.23000000000000081</v>
@@ -27542,7 +27584,7 @@
         <v>-0.97319062880814855</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <f t="shared" si="21"/>
         <v>0.24000000000000082</v>
@@ -27560,7 +27602,7 @@
         <v>-0.97077288796092753</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <f t="shared" si="21"/>
         <v>0.25000000000000083</v>
@@ -27578,7 +27620,7 @@
         <v>-0.96824583655185403</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <f t="shared" si="21"/>
         <v>0.26000000000000084</v>
@@ -27596,7 +27638,7 @@
         <v>-0.96560861636586459</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <f t="shared" si="21"/>
         <v>0.27000000000000085</v>
@@ -27614,7 +27656,7 @@
         <v>-0.96286032216516204</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <f t="shared" si="21"/>
         <v>0.28000000000000086</v>
@@ -27632,7 +27674,7 @@
         <v>-0.95999999999999974</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <f t="shared" si="21"/>
         <v>0.29000000000000087</v>
@@ -27650,7 +27692,7 @@
         <v>-0.95702664539708582</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <f t="shared" si="21"/>
         <v>0.30000000000000088</v>
@@ -27668,7 +27710,7 @@
         <v>-0.95393920141694533</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <f t="shared" si="21"/>
         <v>0.31000000000000089</v>
@@ -27686,7 +27728,7 @@
         <v>-0.95073655657074607</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <f t="shared" si="21"/>
         <v>0.32000000000000089</v>
@@ -27704,7 +27746,7 @@
         <v>-0.94741754258616062</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <f t="shared" si="21"/>
         <v>0.3300000000000009</v>
@@ -27722,7 +27764,7 @@
         <v>-0.94398093201081101</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <f t="shared" si="21"/>
         <v>0.34000000000000091</v>
@@ -27740,7 +27782,7 @@
         <v>-0.94042543564069947</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <f t="shared" si="21"/>
         <v>0.35000000000000092</v>
@@ -27758,7 +27800,7 @@
         <v>-0.93674969975975941</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <f t="shared" si="21"/>
         <v>0.36000000000000093</v>
@@ -27776,7 +27818,7 @@
         <v>-0.9329523031752478</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <f t="shared" si="21"/>
         <v>0.37000000000000094</v>
@@ -27794,7 +27836,7 @@
         <v>-0.92903175403212102</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <f t="shared" si="21"/>
         <v>0.38000000000000095</v>
@@ -27812,7 +27854,7 @@
         <v>-0.92498648638777381</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <f t="shared" si="21"/>
         <v>0.39000000000000096</v>
@@ -27830,7 +27872,7 @@
         <v>-0.92081485652654371</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <f t="shared" si="21"/>
         <v>0.40000000000000097</v>
@@ -27848,7 +27890,7 @@
         <v>-0.91651513899116754</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <f t="shared" si="21"/>
         <v>0.41000000000000097</v>
@@ -27866,7 +27908,7 @@
         <v>-0.91208552230588513</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <f t="shared" si="21"/>
         <v>0.42000000000000098</v>
@@ -27884,7 +27926,7 @@
         <v>-0.90752410436307374</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <f t="shared" si="21"/>
         <v>0.43000000000000099</v>
@@ -27902,7 +27944,7 @@
         <v>-0.90282888744213274</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <f t="shared" si="21"/>
         <v>0.440000000000001</v>
@@ -27920,7 +27962,7 @@
         <v>-0.89799777282574544</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <f t="shared" si="21"/>
         <v>0.45000000000000101</v>
@@ -27938,7 +27980,7 @@
         <v>-0.89302855497458711</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <f t="shared" si="21"/>
         <v>0.46000000000000102</v>
@@ -27956,7 +27998,7 @@
         <v>-0.88791891521692401</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <f t="shared" ref="A159:A212" si="25">A158+0.01</f>
         <v>0.47000000000000103</v>
@@ -27974,7 +28016,7 @@
         <v>-0.88266641490429387</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <f t="shared" si="25"/>
         <v>0.48000000000000104</v>
@@ -27992,7 +28034,7 @@
         <v>-0.87726848797845181</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <f t="shared" si="25"/>
         <v>0.49000000000000105</v>
@@ -28010,7 +28052,7 @@
         <v>-0.87172243288789975</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <f t="shared" si="25"/>
         <v>0.500000000000001</v>
@@ -28028,7 +28070,7 @@
         <v>-0.86602540378443804</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <f t="shared" si="25"/>
         <v>0.51000000000000101</v>
@@ -28046,7 +28088,7 @@
         <v>-0.86017440092111486</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <f t="shared" si="25"/>
         <v>0.52000000000000102</v>
@@ -28064,7 +28106,7 @@
         <v>-0.8541662601625043</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <f t="shared" si="25"/>
         <v>0.53000000000000103</v>
@@ -28082,7 +28124,7 @@
         <v>-0.84799764150615353</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <f t="shared" si="25"/>
         <v>0.54000000000000103</v>
@@ -28100,7 +28142,7 @@
         <v>-0.84166501650003178</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <f t="shared" si="25"/>
         <v>0.55000000000000104</v>
@@ -28118,7 +28160,7 @@
         <v>-0.83516465442450261</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <f t="shared" si="25"/>
         <v>0.56000000000000105</v>
@@ -28136,7 +28178,7 @@
         <v>-0.8284926070883184</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <f t="shared" si="25"/>
         <v>0.57000000000000106</v>
@@ -28154,7 +28196,7 @@
         <v>-0.82164469206585811</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <f t="shared" si="25"/>
         <v>0.58000000000000107</v>
@@ -28172,7 +28214,7 @@
         <v>-0.81461647417665128</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <f t="shared" si="25"/>
         <v>0.59000000000000108</v>
@@ -28190,7 +28232,7 @@
         <v>-0.80740324497737725</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <f t="shared" si="25"/>
         <v>0.60000000000000109</v>
@@ -28208,7 +28250,7 @@
         <v>-0.79999999999999916</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <f t="shared" si="25"/>
         <v>0.6100000000000011</v>
@@ -28226,7 +28268,7 @@
         <v>-0.79240141342630044</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <f t="shared" si="25"/>
         <v>0.62000000000000111</v>
@@ -28244,7 +28286,7 @@
         <v>-0.78460180983732031</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <f t="shared" si="25"/>
         <v>0.63000000000000111</v>
@@ -28262,7 +28304,7 @@
         <v>-0.77659513261415603</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <f t="shared" si="25"/>
         <v>0.64000000000000112</v>
@@ -28280,7 +28322,7 @@
         <v>-0.7683749084919409</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <f t="shared" si="25"/>
         <v>0.65000000000000113</v>
@@ -28298,7 +28340,7 @@
         <v>-0.75993420767853226</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <f t="shared" si="25"/>
         <v>0.66000000000000114</v>
@@ -28316,7 +28358,7 @@
         <v>-0.75126559883971689</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <f t="shared" si="25"/>
         <v>0.67000000000000115</v>
@@ -28334,7 +28376,7 @@
         <v>-0.74236109811869755</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <f t="shared" si="25"/>
         <v>0.68000000000000116</v>
@@ -28352,7 +28394,7 @@
         <v>-0.73321211119293328</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <f t="shared" si="25"/>
         <v>0.69000000000000117</v>
@@ -28370,7 +28412,7 @@
         <v>-0.72380936716790167</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <f t="shared" si="25"/>
         <v>0.70000000000000118</v>
@@ -28388,7 +28430,7 @@
         <v>-0.71414284285428387</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <f t="shared" si="25"/>
         <v>0.71000000000000119</v>
@@ -28406,7 +28448,7 @@
         <v>-0.70420167565832892</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <f t="shared" si="25"/>
         <v>0.72000000000000119</v>
@@ -28424,7 +28466,7 @@
         <v>-0.69397406291589758</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <f t="shared" si="25"/>
         <v>0.7300000000000012</v>
@@ -28442,7 +28484,7 @@
         <v>-0.68344714499366976</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <f t="shared" si="25"/>
         <v>0.74000000000000121</v>
@@ -28460,7 +28502,7 @@
         <v>-0.67260686883200815</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <f t="shared" si="25"/>
         <v>0.75000000000000122</v>
@@ -28478,7 +28520,7 @@
         <v>-0.66143782776614635</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <f t="shared" si="25"/>
         <v>0.76000000000000123</v>
@@ -28496,7 +28538,7 @@
         <v>-0.64992307237087532</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <f t="shared" si="25"/>
         <v>0.77000000000000124</v>
@@ -28514,7 +28556,7 @@
         <v>-0.63804388563796932</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <f t="shared" si="25"/>
         <v>0.78000000000000125</v>
@@ -28532,7 +28574,7 @@
         <v>-0.62577951388647912</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <f t="shared" si="25"/>
         <v>0.79000000000000126</v>
@@ -28550,7 +28592,7 @@
         <v>-0.61310684223877165</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <f t="shared" si="25"/>
         <v>0.80000000000000127</v>
@@ -28568,7 +28610,7 @@
         <v>-0.59999999999999831</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
         <f t="shared" si="25"/>
         <v>0.81000000000000127</v>
@@ -28586,7 +28628,7 @@
         <v>-0.58642987645582823</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <f t="shared" si="25"/>
         <v>0.82000000000000128</v>
@@ -28604,7 +28646,7 @@
         <v>-0.57236352085016551</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
         <f t="shared" si="25"/>
         <v>0.83000000000000129</v>
@@ -28622,7 +28664,7 @@
         <v>-0.55776339069537162</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <f t="shared" si="25"/>
         <v>0.8400000000000013</v>
@@ -28640,7 +28682,7 @@
         <v>-0.54258639865001945</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <f t="shared" si="25"/>
         <v>0.85000000000000131</v>
@@ -28658,7 +28700,7 @@
         <v>-0.52678268764263481</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <f t="shared" si="25"/>
         <v>0.86000000000000132</v>
@@ -28676,7 +28718,7 @@
         <v>-0.51029403288692077</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
         <f t="shared" si="25"/>
         <v>0.87000000000000133</v>
@@ -28694,7 +28736,7 @@
         <v>-0.49305172142483961</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <f t="shared" si="25"/>
         <v>0.88000000000000134</v>
@@ -28712,7 +28754,7 @@
         <v>-0.47497368348151425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <f t="shared" si="25"/>
         <v>0.89000000000000135</v>
@@ -28730,7 +28772,7 @@
         <v>-0.45596052460711733</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <f t="shared" si="25"/>
         <v>0.90000000000000135</v>
@@ -28748,7 +28790,7 @@
         <v>-0.43588989435406461</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <f t="shared" si="25"/>
         <v>0.91000000000000136</v>
@@ -28766,7 +28808,7 @@
         <v>-0.41460824883255459</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <f t="shared" si="25"/>
         <v>0.92000000000000137</v>
@@ -28784,7 +28826,7 @@
         <v>-0.39191835884530535</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <f t="shared" si="25"/>
         <v>0.93000000000000138</v>
@@ -28802,7 +28844,7 @@
         <v>-0.36755951898977862</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <f t="shared" si="25"/>
         <v>0.94000000000000139</v>
@@ -28820,7 +28862,7 @@
         <v>-0.34117444218463577</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <f t="shared" si="25"/>
         <v>0.9500000000000014</v>
@@ -28838,7 +28880,7 @@
         <v>-0.3122498999199157</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <f t="shared" si="25"/>
         <v>0.96000000000000141</v>
@@ -28856,7 +28898,7 @@
         <v>-0.27999999999999509</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <f t="shared" si="25"/>
         <v>0.97000000000000142</v>
@@ -28874,7 +28916,7 @@
         <v>-0.24310491562285874</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <f t="shared" si="25"/>
         <v>0.98000000000000143</v>
@@ -28892,7 +28934,7 @@
         <v>-0.19899748742131693</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <f t="shared" si="25"/>
         <v>0.99000000000000143</v>
@@ -28910,7 +28952,7 @@
         <v>-0.14106735979664872</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <f t="shared" si="25"/>
         <v>1.0000000000000013</v>
@@ -28946,20 +28988,20 @@
       <selection activeCell="AF40" sqref="AF40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="11.265625" customWidth="1"/>
-    <col min="22" max="22" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="11.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>69</v>
       </c>
@@ -29021,7 +29063,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D2" s="7">
         <v>0</v>
       </c>
@@ -29111,7 +29153,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>140</v>
       </c>
@@ -29215,7 +29257,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>146</v>
       </c>
@@ -29319,7 +29361,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D5" s="7">
         <v>3</v>
       </c>
@@ -29396,7 +29438,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>152</v>
       </c>
@@ -29503,7 +29545,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>154</v>
       </c>
@@ -29616,7 +29658,7 @@
         <v>0.61783415114533813</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>91</v>
       </c>
@@ -29731,7 +29773,7 @@
         <v>0.11205815968600463</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>95</v>
       </c>
@@ -29846,7 +29888,7 @@
         <v>-0.27069063257455572</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>99</v>
       </c>
@@ -29961,7 +30003,7 @@
         <v>-0.59140747672680072</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>104</v>
       </c>
@@ -30076,7 +30118,7 @@
         <v>-0.87158788505756468</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D12" s="7">
         <v>10</v>
       </c>
@@ -30185,7 +30227,7 @@
         <v>-1.121834935510067</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>51</v>
       </c>
@@ -30301,7 +30343,7 @@
         <v>-1.3482947936980616</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D14" s="7">
         <v>12</v>
       </c>
@@ -30410,7 +30452,7 @@
         <v>-1.5548861143232227</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
@@ -30522,7 +30564,7 @@
         <v>-1.7442639787625767</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>78</v>
       </c>
@@ -30637,7 +30679,7 @@
         <v>-1.9182990094394969</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>E107</f>
         <v>0.99911515812224128</v>
@@ -30754,7 +30796,7 @@
         <v>-2.0783393759541067</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D18" s="7">
         <v>16</v>
       </c>
@@ -30863,7 +30905,7 @@
         <v>-2.2253640519351827</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
@@ -30975,7 +31017,7 @@
         <v>-2.3600766272276381</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>A17+A17*B17+B17</f>
         <v>4.9990792325647728</v>
@@ -31091,7 +31133,7 @@
         <v>-2.4829641091363173</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>A17^2+A17*B17+B17^2</f>
         <v>7.0007977141596491</v>
@@ -31207,7 +31249,7 @@
         <v>-2.5943335644354706</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D22" s="7">
         <v>20</v>
       </c>
@@ -31316,7 +31358,7 @@
         <v>-2.6943335644354707</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -31431,7 +31473,7 @@
         <v>-2.7829641091363175</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -31546,7 +31588,7 @@
         <v>-2.8600766272276381</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>162</v>
       </c>
@@ -31661,7 +31703,7 @@
         <v>-2.9253640519351825</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -31776,7 +31818,7 @@
         <v>-2.9783393759541066</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>168</v>
       </c>
@@ -31888,7 +31930,7 @@
         <v>-3.0182990094394966</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D28" s="7">
         <v>26</v>
       </c>
@@ -31997,7 +32039,7 @@
         <v>-3.0442639787625758</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D29" s="7">
         <v>27</v>
       </c>
@@ -32106,7 +32148,7 @@
         <v>-3.0548861143232218</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D30" s="7">
         <v>28</v>
       </c>
@@ -32215,7 +32257,7 @@
         <v>-3.0482947936980604</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D31" s="7">
         <v>29</v>
       </c>
@@ -32324,7 +32366,7 @@
         <v>-3.021834935510066</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D32" s="7">
         <v>30</v>
       </c>
@@ -32433,7 +32475,7 @@
         <v>-2.9715878850575637</v>
       </c>
     </row>
-    <row r="33" spans="4:32" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D33" s="7">
         <v>31</v>
       </c>
@@ -32542,7 +32584,7 @@
         <v>-2.8914074767267994</v>
       </c>
     </row>
-    <row r="34" spans="4:32" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D34" s="7">
         <v>32</v>
       </c>
@@ -32651,7 +32693,7 @@
         <v>-2.7706906325745542</v>
       </c>
     </row>
-    <row r="35" spans="4:32" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D35" s="7">
         <v>33</v>
       </c>
@@ -32760,7 +32802,7 @@
         <v>-2.5879418403139938</v>
       </c>
     </row>
-    <row r="36" spans="4:32" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D36" s="7">
         <v>34</v>
       </c>
@@ -32869,7 +32911,7 @@
         <v>-2.2821658488546595</v>
       </c>
     </row>
-    <row r="37" spans="4:32" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D37" s="7">
         <v>35</v>
       </c>
@@ -32962,7 +33004,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="4:32" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D38" s="7">
         <v>36</v>
       </c>
@@ -33055,7 +33097,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="4:32" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D39" s="7">
         <v>37</v>
       </c>
@@ -33148,7 +33190,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="4:32" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D40" s="7">
         <v>38</v>
       </c>
@@ -33241,7 +33283,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="4:32" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D41" s="7">
         <v>39</v>
       </c>
@@ -33334,7 +33376,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="4:32" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <v>40</v>
       </c>
@@ -33427,7 +33469,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="4:32" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D43" s="7">
         <v>41</v>
       </c>
@@ -33520,7 +33562,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="4:32" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D44" s="7">
         <v>42</v>
       </c>
@@ -33613,7 +33655,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="4:32" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D45" s="7">
         <v>43</v>
       </c>
@@ -33706,7 +33748,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="4:32" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D46" s="7">
         <v>44</v>
       </c>
@@ -33799,7 +33841,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="47" spans="4:32" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D47" s="7">
         <v>45</v>
       </c>
@@ -33892,7 +33934,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="48" spans="4:32" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D48" s="7">
         <v>46</v>
       </c>
@@ -33969,7 +34011,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="49" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D49" s="7">
         <v>47</v>
       </c>
@@ -34046,7 +34088,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="50" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D50" s="7">
         <v>48</v>
       </c>
@@ -34123,7 +34165,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="51" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D51" s="7">
         <v>49</v>
       </c>
@@ -34200,7 +34242,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="52" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D52" s="7">
         <v>50</v>
       </c>
@@ -34277,7 +34319,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="53" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D53" s="7">
         <v>51</v>
       </c>
@@ -34354,7 +34396,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="54" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D54" s="7">
         <v>52</v>
       </c>
@@ -34431,7 +34473,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="55" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D55" s="7">
         <v>53</v>
       </c>
@@ -34508,7 +34550,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="56" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D56" s="7">
         <v>54</v>
       </c>
@@ -34585,7 +34627,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="57" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="57" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D57" s="7">
         <v>55</v>
       </c>
@@ -34662,7 +34704,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="58" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D58" s="7">
         <v>56</v>
       </c>
@@ -34739,7 +34781,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="59" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D59" s="7">
         <v>57</v>
       </c>
@@ -34816,7 +34858,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="60" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D60" s="7">
         <v>58</v>
       </c>
@@ -34893,7 +34935,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="61" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D61" s="7">
         <v>59</v>
       </c>
@@ -34970,7 +35012,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="62" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D62" s="7">
         <v>60</v>
       </c>
@@ -35047,7 +35089,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="63" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D63" s="7">
         <v>61</v>
       </c>
@@ -35124,7 +35166,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="64" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D64" s="7">
         <v>62</v>
       </c>
@@ -35201,7 +35243,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="65" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D65" s="7">
         <v>63</v>
       </c>
@@ -35278,7 +35320,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="66" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D66" s="7">
         <v>64</v>
       </c>
@@ -35355,7 +35397,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="67" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D67" s="7">
         <v>65</v>
       </c>
@@ -35432,7 +35474,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="68" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D68" s="7">
         <v>66</v>
       </c>
@@ -35509,7 +35551,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="69" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D69" s="7">
         <v>67</v>
       </c>
@@ -35586,7 +35628,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="70" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D70" s="7">
         <v>68</v>
       </c>
@@ -35663,7 +35705,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="71" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D71" s="7">
         <v>69</v>
       </c>
@@ -35740,7 +35782,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="72" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D72" s="7">
         <v>70</v>
       </c>
@@ -35817,7 +35859,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="73" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D73" s="7">
         <v>71</v>
       </c>
@@ -35894,7 +35936,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="74" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D74" s="7">
         <v>72</v>
       </c>
@@ -35971,7 +36013,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="75" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D75" s="7">
         <v>73</v>
       </c>
@@ -36048,7 +36090,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="76" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="76" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D76" s="7">
         <v>74</v>
       </c>
@@ -36125,7 +36167,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="77" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="77" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D77" s="7">
         <v>75</v>
       </c>
@@ -36202,7 +36244,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="78" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D78" s="7">
         <v>76</v>
       </c>
@@ -36279,7 +36321,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="79" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D79" s="7">
         <v>77</v>
       </c>
@@ -36356,7 +36398,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="80" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D80" s="7">
         <v>78</v>
       </c>
@@ -36433,7 +36475,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="81" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="81" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D81" s="7">
         <v>79</v>
       </c>
@@ -36510,7 +36552,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="82" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="82" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D82" s="7">
         <v>80</v>
       </c>
@@ -36587,7 +36629,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="83" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="83" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D83" s="7">
         <v>81</v>
       </c>
@@ -36664,7 +36706,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="84" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="84" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D84" s="7">
         <v>82</v>
       </c>
@@ -36741,7 +36783,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="85" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="85" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D85" s="7">
         <v>83</v>
       </c>
@@ -36818,7 +36860,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="86" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="86" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D86" s="7">
         <v>84</v>
       </c>
@@ -36895,7 +36937,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="87" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="87" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D87" s="7">
         <v>85</v>
       </c>
@@ -36972,7 +37014,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="88" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="88" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D88" s="7">
         <v>86</v>
       </c>
@@ -37049,7 +37091,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="89" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="89" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D89" s="7">
         <v>87</v>
       </c>
@@ -37126,7 +37168,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="90" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="90" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D90" s="7">
         <v>88</v>
       </c>
@@ -37203,7 +37245,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="91" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="91" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D91" s="7">
         <v>89</v>
       </c>
@@ -37280,7 +37322,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="92" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="92" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D92" s="7">
         <v>90</v>
       </c>
@@ -37357,7 +37399,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="93" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="93" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D93" s="7">
         <v>91</v>
       </c>
@@ -37434,7 +37476,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="94" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="94" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D94" s="7">
         <v>92</v>
       </c>
@@ -37511,7 +37553,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="95" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="95" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D95" s="7">
         <v>93</v>
       </c>
@@ -37588,7 +37630,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="96" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="96" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D96" s="7">
         <v>94</v>
       </c>
@@ -37665,7 +37707,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="97" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="97" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D97" s="7">
         <v>95</v>
       </c>
@@ -37742,7 +37784,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="98" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="98" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D98" s="7">
         <v>96</v>
       </c>
@@ -37819,7 +37861,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="99" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="99" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D99" s="7">
         <v>97</v>
       </c>
@@ -37896,7 +37938,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="100" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="100" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D100" s="7">
         <v>98</v>
       </c>
@@ -37973,7 +38015,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="101" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="101" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D101" s="7">
         <v>99</v>
       </c>
@@ -38050,7 +38092,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="102" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="102" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D102" s="7">
         <v>100</v>
       </c>
@@ -38127,7 +38169,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="103" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="103" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D103" s="7">
         <v>101</v>
       </c>
@@ -38204,7 +38246,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="104" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="104" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D104" s="7">
         <v>102</v>
       </c>
@@ -38281,7 +38323,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="105" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="105" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D105" s="7">
         <v>103</v>
       </c>
@@ -38358,7 +38400,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="106" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="106" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D106" s="7">
         <v>104</v>
       </c>
@@ -38435,7 +38477,7 @@
         <v>CONTINUE</v>
       </c>
     </row>
-    <row r="107" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="107" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D107" s="7">
         <v>105</v>
       </c>
@@ -38519,58 +38561,46 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBBF1C5-DCD3-4858-A3E7-B21F88EE6B3C}">
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55031538-64EF-476A-8EF9-AE4FC96B1749}">
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D5" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>181</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="14">
-        <f>D6+0.1</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0</v>
       </c>
@@ -38578,88 +38608,59 @@
         <f>COS(A8+EXP(COS(A8)))</f>
         <v>-0.91173391478696508</v>
       </c>
-      <c r="D8" s="14">
-        <f t="shared" ref="D8:D13" si="0">D7+0.1</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <f>A8+0.2</f>
         <v>0.2</v>
       </c>
       <c r="B9" s="14">
-        <f t="shared" ref="B9:B13" si="1">COS(A9+EXP(COS(A9)))</f>
+        <f t="shared" ref="B9:B13" si="0">COS(A9+EXP(COS(A9)))</f>
         <v>-0.96189138749512737</v>
       </c>
-      <c r="D9" s="14">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <f t="shared" ref="A10:A12" si="1">A9+0.2</f>
+        <v>0.4</v>
+      </c>
+      <c r="B10" s="14">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="14">
-        <f t="shared" ref="A10:A12" si="2">A9+0.2</f>
-        <v>0.4</v>
-      </c>
-      <c r="B10" s="14">
+        <v>-0.97374874326976235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <f t="shared" si="1"/>
-        <v>-0.97374874326976235</v>
-      </c>
-      <c r="D10" s="14">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="B11" s="14">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="14">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="B11" s="14">
+        <v>-0.9666604230107646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <f t="shared" si="1"/>
-        <v>-0.9666604230107646</v>
-      </c>
-      <c r="D11" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="B12" s="14">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="14">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="B12" s="14">
-        <f t="shared" si="1"/>
         <v>-0.94458740832705101</v>
       </c>
-      <c r="D12" s="14">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <f>A12+0.2</f>
         <v>1</v>
       </c>
       <c r="B13" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.91101112436955167</v>
       </c>
-      <c r="D13" s="14">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D14" s="14">
-        <f>D13+0.1</f>
-        <v>0.79999999999999993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>182</v>
       </c>
@@ -38668,11 +38669,15 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="15"/>
+      <c r="I16" s="14" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>2</v>
+      </c>
       <c r="B17" s="14" t="s">
         <v>184</v>
       </c>
@@ -38689,34 +38694,36 @@
         <v>188</v>
       </c>
       <c r="G17" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="I17" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="I17" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>0</v>
+      </c>
       <c r="B18" s="14">
-        <f t="shared" ref="B18:B26" si="3">B$8*(((D6-A$9)*(D6-A$10)*(D6-A$11)*(D6-A$12)*(D6-A$13))/((A$8-A$9)*(A$8-A$10)*(A$8-A$11)*(A$8-A$12)*(A$8-A$13)))</f>
+        <f>B$8*(((A18-A$9)*(A18-A$10)*(A18-A$11)*(A18-A$12)*(A18-A$13))/((A$8-A$9)*(A$8-A$10)*(A$8-A$11)*(A$8-A$12)*(A$8-A$13)))</f>
         <v>-0.91173391478696508</v>
       </c>
-      <c r="C18" s="14">
-        <f t="shared" ref="C18:C26" si="4">B$9*(((D6-A$8)*(D6-A$10)*(D6-A$11)*(D6-A$12)*(D6-A$13))/((A$9-A$8)*(A$9-A$10)*(A$9-A$11)*(A$9-A$12)*(A$9-A$13)))</f>
+      <c r="C18" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="14">
+        <f>B$10*(((A18-A$8)*(A18-A$9)*(A18-A$11)*(A18-A$12)*(A18-A$13))/((A$10-A$8)*(A$10-A$9)*(A$10-A$11)*(A$10-A$12)*(A$10-A$13)))</f>
         <v>0</v>
       </c>
-      <c r="D18" s="14">
-        <f t="shared" ref="D18:D26" si="5">B$10*(((D6-A$8)*(D6-A$9)*(D6-A$11)*(D6-A$12)*(D6-A$13))/((A$10-A$8)*(A$10-A$9)*(A$10-A$11)*(A$10-A$12)*(A$10-A$13)))</f>
+      <c r="E18" s="14">
+        <f>B$11*(((A18-A$8)*(A18-A$9)*(A18-A$10)*(A18-A$12)*(A18-A$13))/(($A$11-$A$8)*($A$11-$A$9)*($A$11-$A$10)*($A$11-$A$12)*($A$11-$A$13)))</f>
         <v>0</v>
       </c>
-      <c r="E18" s="14">
-        <f t="shared" ref="E18:E26" si="6">B$11*(((D6-A$8)*(D6-A$9)*(D6-A$10)*(D6-A$12)*(D6-A$13))/(($A$11-$A$8)*($A$11-$A$9)*($A$11-$A$10)*($A$11-$A$12)*($A$11-$A$13)))</f>
-        <v>0</v>
-      </c>
       <c r="F18" s="14">
-        <f t="shared" ref="F18:F26" si="7">$B$12*(((D6-$A$8)*(D6-$A$9)*(D6-$A$10)*(D6-$A$11)*(D6-$A$13))/(($A$12-$A$8)*($A$12-$A$9)*($A$12-$A$10)*($A$12-$A$11)*($A$12-$A$13)))</f>
+        <f>$B$12*(((A18-$A$8)*(A18-$A$9)*(A18-$A$10)*(A18-$A$11)*(A18-$A$13))/(($A$12-$A$8)*($A$12-$A$9)*($A$12-$A$10)*($A$12-$A$11)*($A$12-$A$13)))</f>
         <v>0</v>
       </c>
       <c r="G18" s="14">
@@ -38724,404 +38731,250 @@
         <v>-0.91173391478696508</v>
       </c>
       <c r="H18" s="14">
-        <f t="shared" ref="H18:H27" si="8">COS(D6+EXP(COS(D6)))</f>
+        <f>H$24*(A18^4)+H$25*(A18^3)+H$26*(A18^2)+H$27*A18+H$28*1</f>
+        <v>-0.91169999999999995</v>
+      </c>
+      <c r="I18" s="14">
+        <f>COS(A18+EXP(COS(A18)))</f>
         <v>-0.91173391478696508</v>
       </c>
-      <c r="I18" s="14">
-        <f>H$29*(D6^4)+H$30*(D6^3)+H$31*(D6^2)+H$32*D6+H$33*1</f>
-        <v>-0.91169999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <f>A18+0.2</f>
+        <v>0.2</v>
+      </c>
       <c r="B19" s="14">
-        <f t="shared" si="3"/>
-        <v>-0.22437201809210472</v>
+        <f>B$8*(((A19-A$9)*(A19-A$10)*(A19-A$11)*(A19-A$12)*(A19-A$13))/((A$8-A$9)*(A$8-A$10)*(A$8-A$11)*(A$8-A$12)*(A$8-A$13)))</f>
+        <v>0</v>
       </c>
       <c r="C19" s="14">
-        <f t="shared" si="4"/>
-        <v>-1.1835772932068949</v>
+        <f>B$9*(((A19-A$8)*(A19-A$10)*(A19-A$11)*(A19-A$12)*(A19-A$13))/((A$9-A$8)*(A$9-A$10)*(A$9-A$11)*(A$9-A$12)*(A$9-A$13)))</f>
+        <v>-0.96189138749512737</v>
       </c>
       <c r="D19" s="14">
-        <f t="shared" si="5"/>
-        <v>0.79877826596347701</v>
+        <f>B$10*(((A19-A$8)*(A19-A$9)*(A19-A$11)*(A19-A$12)*(A19-A$13))/((A$10-A$8)*(A$10-A$9)*(A$10-A$11)*(A$10-A$12)*(A$10-A$13)))</f>
+        <v>0</v>
       </c>
       <c r="E19" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.47577817695061075</v>
+        <f>B$11*(((A19-A$8)*(A19-A$9)*(A19-A$10)*(A19-A$12)*(A19-A$13))/(($A$11-$A$8)*($A$11-$A$9)*($A$11-$A$10)*($A$11-$A$12)*($A$11-$A$13)))</f>
+        <v>0</v>
       </c>
       <c r="F19" s="14">
-        <f t="shared" si="7"/>
-        <v>0.16604075536998958</v>
+        <f>$B$12*(((A19-$A$8)*(A19-$A$9)*(A19-$A$10)*(A19-$A$11)*(A19-$A$13))/(($A$12-$A$8)*($A$12-$A$9)*($A$12-$A$10)*($A$12-$A$11)*($A$12-$A$13)))</f>
+        <v>0</v>
       </c>
       <c r="G19" s="14">
-        <f t="shared" ref="G19:G22" si="9">SUM(B19:F19)</f>
-        <v>-0.91890846691614381</v>
+        <f t="shared" ref="G19:G22" si="2">SUM(B19:F19)</f>
+        <v>-0.96189138749512737</v>
       </c>
       <c r="H19" s="14">
-        <f t="shared" si="8"/>
-        <v>-0.94379814193779332</v>
+        <f>H$24*(A19^4)+H$25*(A19^3)+H$26*(A19^2)+H$27*A19+H$28*1</f>
+        <v>-0.96189999999999998</v>
       </c>
       <c r="I19" s="14">
-        <f t="shared" ref="I19:I27" si="10">H$29*(D7^4)+H$30*(D7^3)+H$31*(D7^2)+H$32*D7+H$33*1</f>
-        <v>-0.94344609374999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+        <f>COS(A19+EXP(COS(A19)))</f>
+        <v>-0.96189138749512737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <f>A19+0.2</f>
+        <v>0.4</v>
+      </c>
       <c r="B20" s="14">
-        <f t="shared" si="3"/>
+        <f>B$8*(((A20-A$9)*(A20-A$10)*(A20-A$11)*(A20-A$12)*(A20-A$13))/((A$8-A$9)*(A$8-A$10)*(A$8-A$11)*(A$8-A$12)*(A$8-A$13)))</f>
         <v>0</v>
       </c>
       <c r="C20" s="14">
-        <f t="shared" si="4"/>
-        <v>-0.96189138749512737</v>
+        <f>B$9*(((A20-A$8)*(A20-A$10)*(A20-A$11)*(A20-A$12)*(A20-A$13))/((A$9-A$8)*(A$9-A$10)*(A$9-A$11)*(A$9-A$12)*(A$9-A$13)))</f>
+        <v>0</v>
       </c>
       <c r="D20" s="14">
-        <f t="shared" si="5"/>
+        <f>B$10*(((A20-A$8)*(A20-A$9)*(A20-A$11)*(A20-A$12)*(A20-A$13))/((A$10-A$8)*(A$10-A$9)*(A$10-A$11)*(A$10-A$12)*(A$10-A$13)))</f>
+        <v>-0.97374874326976235</v>
+      </c>
+      <c r="E20" s="14">
+        <f>B$11*(((A20-A$8)*(A20-A$9)*(A20-A$10)*(A20-A$12)*(A20-A$13))/(($A$11-$A$8)*($A$11-$A$9)*($A$11-$A$10)*($A$11-$A$12)*($A$11-$A$13)))</f>
         <v>0</v>
       </c>
-      <c r="E20" s="14">
-        <f t="shared" si="6"/>
+      <c r="F20" s="14">
+        <f>$B$12*(((A20-$A$8)*(A20-$A$9)*(A20-$A$10)*(A20-$A$11)*(A20-$A$13))/(($A$12-$A$8)*($A$12-$A$9)*($A$12-$A$10)*($A$12-$A$11)*($A$12-$A$13)))</f>
         <v>0</v>
       </c>
-      <c r="F20" s="14">
-        <f t="shared" si="7"/>
+      <c r="G20" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.97374874326976235</v>
+      </c>
+      <c r="H20" s="14">
+        <f>H$24*(A20^4)+H$25*(A20^3)+H$26*(A20^2)+H$27*A20+H$28*1</f>
+        <v>-0.97370000000000001</v>
+      </c>
+      <c r="I20" s="14">
+        <f>COS(A20+EXP(COS(A20)))</f>
+        <v>-0.97374874326976235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <f>A20+0.2</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="B21" s="14">
+        <f>B$8*(((A21-A$9)*(A21-A$10)*(A21-A$11)*(A21-A$12)*(A21-A$13))/((A$8-A$9)*(A$8-A$10)*(A$8-A$11)*(A$8-A$12)*(A$8-A$13)))</f>
         <v>0</v>
       </c>
-      <c r="G20" s="14">
-        <f t="shared" si="9"/>
-        <v>-0.96189138749512737</v>
-      </c>
-      <c r="H20" s="14">
-        <f t="shared" si="8"/>
-        <v>-0.96189138749512737</v>
-      </c>
-      <c r="I20" s="14">
-        <f t="shared" si="10"/>
-        <v>-0.96189999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B21" s="14">
-        <f t="shared" si="3"/>
-        <v>2.4930224232456069E-2</v>
-      </c>
       <c r="C21" s="14">
-        <f t="shared" si="4"/>
-        <v>-0.39452576440229808</v>
+        <f>B$9*(((A21-A$8)*(A21-A$10)*(A21-A$11)*(A21-A$12)*(A21-A$13))/((A$9-A$8)*(A$9-A$10)*(A$9-A$11)*(A$9-A$12)*(A$9-A$13)))</f>
+        <v>0</v>
       </c>
       <c r="D21" s="14">
-        <f t="shared" si="5"/>
-        <v>-0.7987782659634769</v>
+        <f>B$10*(((A21-A$8)*(A21-A$9)*(A21-A$11)*(A21-A$12)*(A21-A$13))/((A$10-A$8)*(A$10-A$9)*(A$10-A$11)*(A$10-A$12)*(A$10-A$13)))</f>
+        <v>0</v>
       </c>
       <c r="E21" s="14">
-        <f t="shared" si="6"/>
-        <v>0.26432120941700588</v>
+        <f>B$11*(((A21-A$8)*(A21-A$9)*(A21-A$10)*(A21-A$12)*(A21-A$13))/(($A$11-$A$8)*($A$11-$A$9)*($A$11-$A$10)*($A$11-$A$12)*($A$11-$A$13)))</f>
+        <v>-0.9666604230107646</v>
       </c>
       <c r="F21" s="14">
-        <f t="shared" si="7"/>
-        <v>-7.7485685839328425E-2</v>
+        <f>$B$12*(((A21-$A$8)*(A21-$A$9)*(A21-$A$10)*(A21-$A$11)*(A21-$A$13))/(($A$12-$A$8)*($A$12-$A$9)*($A$12-$A$10)*($A$12-$A$11)*($A$12-$A$13)))</f>
+        <v>0</v>
       </c>
       <c r="G21" s="14">
-        <f t="shared" si="9"/>
-        <v>-0.98153828255564146</v>
+        <f t="shared" si="2"/>
+        <v>-0.9666604230107646</v>
       </c>
       <c r="H21" s="14">
-        <f t="shared" si="8"/>
-        <v>-0.97084924322141375</v>
+        <f>H$24*(A21^4)+H$25*(A21^3)+H$26*(A21^2)+H$27*A21+H$28*1</f>
+        <v>-0.96669999999999989</v>
       </c>
       <c r="I21" s="14">
-        <f t="shared" si="10"/>
-        <v>-0.97100234374999994</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+        <f>COS(A21+EXP(COS(A21)))</f>
+        <v>-0.9666604230107646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <f>A21+0.2</f>
+        <v>0.8</v>
+      </c>
       <c r="B22" s="14">
-        <f t="shared" si="3"/>
+        <f>B$8*(((A22-A$9)*(A22-A$10)*(A22-A$11)*(A22-A$12)*(A22-A$13))/((A$8-A$9)*(A$8-A$10)*(A$8-A$11)*(A$8-A$12)*(A$8-A$13)))</f>
         <v>0</v>
       </c>
       <c r="C22" s="14">
-        <f t="shared" si="4"/>
+        <f>B$9*(((A22-A$8)*(A22-A$10)*(A22-A$11)*(A22-A$12)*(A22-A$13))/((A$9-A$8)*(A$9-A$10)*(A$9-A$11)*(A$9-A$12)*(A$9-A$13)))</f>
         <v>0</v>
       </c>
       <c r="D22" s="14">
-        <f t="shared" si="5"/>
-        <v>-0.97374874326976235</v>
+        <f>B$10*(((A22-A$8)*(A22-A$9)*(A22-A$11)*(A22-A$12)*(A22-A$13))/((A$10-A$8)*(A$10-A$9)*(A$10-A$11)*(A$10-A$12)*(A$10-A$13)))</f>
+        <v>0</v>
       </c>
       <c r="E22" s="14">
-        <f t="shared" si="6"/>
+        <f>B$11*(((A22-A$8)*(A22-A$9)*(A22-A$10)*(A22-A$12)*(A22-A$13))/(($A$11-$A$8)*($A$11-$A$9)*($A$11-$A$10)*($A$11-$A$12)*($A$11-$A$13)))</f>
         <v>0</v>
       </c>
       <c r="F22" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>$B$12*(((A22-$A$8)*(A22-$A$9)*(A22-$A$10)*(A22-$A$11)*(A22-$A$13))/(($A$12-$A$8)*($A$12-$A$9)*($A$12-$A$10)*($A$12-$A$11)*($A$12-$A$13)))</f>
+        <v>-0.94458740832705101</v>
       </c>
       <c r="G22" s="14">
-        <f t="shared" si="9"/>
-        <v>-0.97374874326976235</v>
+        <f t="shared" si="2"/>
+        <v>-0.94458740832705101</v>
       </c>
       <c r="H22" s="14">
-        <f t="shared" si="8"/>
-        <v>-0.97374874326976235</v>
+        <f>H$24*(A22^4)+H$25*(A22^3)+H$26*(A22^2)+H$27*A22+H$28*1</f>
+        <v>-0.94459999999999988</v>
       </c>
       <c r="I22" s="14">
-        <f t="shared" si="10"/>
-        <v>-0.97370000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B23" s="14">
-        <f t="shared" si="3"/>
-        <v>-1.068438181390975E-2</v>
-      </c>
-      <c r="C23" s="14">
-        <f t="shared" si="4"/>
-        <v>9.3934705810071045E-2</v>
-      </c>
-      <c r="D23" s="14">
-        <f t="shared" si="5"/>
-        <v>-0.57055590425962677</v>
-      </c>
-      <c r="E23" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.56640259160786965</v>
-      </c>
-      <c r="F23" s="14">
-        <f t="shared" si="7"/>
-        <v>9.2244864094438647E-2</v>
-      </c>
-      <c r="G23" s="14">
-        <f>SUM(B23:F23)</f>
-        <v>-0.96146330777689659</v>
-      </c>
-      <c r="H23" s="14">
-        <f t="shared" si="8"/>
-        <v>-0.97216067704633868</v>
-      </c>
-      <c r="I23" s="14">
-        <f t="shared" si="10"/>
-        <v>-0.97194609374999996</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B24" s="14">
-        <f t="shared" si="3"/>
-        <v>-1.687046640880198E-17</v>
-      </c>
-      <c r="C24" s="14">
-        <f t="shared" si="4"/>
-        <v>1.3348924569821602E-16</v>
-      </c>
-      <c r="D24" s="14">
-        <f t="shared" si="5"/>
-        <v>-5.4053913748895019E-16</v>
-      </c>
-      <c r="E24" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.96666042301076427</v>
-      </c>
-      <c r="F24" s="14">
-        <f t="shared" si="7"/>
-        <v>2.6217567237392405E-16</v>
-      </c>
-      <c r="G24" s="14">
-        <f t="shared" ref="G24:G25" si="11">SUM(B24:F24)</f>
-        <v>-0.96666042301076449</v>
+        <f>COS(A22+EXP(COS(A22)))</f>
+        <v>-0.94458740832705101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="G24" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="H24" s="14">
-        <f t="shared" si="8"/>
-        <v>-0.9666604230107646</v>
-      </c>
-      <c r="I24" s="14">
-        <f t="shared" si="10"/>
-        <v>-0.96669999999999989</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B25" s="14">
-        <f t="shared" si="3"/>
-        <v>1.0684381813909734E-2</v>
-      </c>
-      <c r="C25" s="14">
-        <f t="shared" si="4"/>
-        <v>-7.8905152880459573E-2</v>
-      </c>
-      <c r="D25" s="14">
-        <f t="shared" si="5"/>
-        <v>0.26625942198782543</v>
-      </c>
-      <c r="E25" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.79296362825101807</v>
-      </c>
-      <c r="F25" s="14">
-        <f t="shared" si="7"/>
-        <v>-0.38742842919664139</v>
-      </c>
-      <c r="G25" s="14">
-        <f t="shared" si="11"/>
-        <v>-0.98235340652638392</v>
-      </c>
-      <c r="H25" s="14">
-        <f t="shared" si="8"/>
-        <v>-0.95739978929344105</v>
-      </c>
-      <c r="I25" s="14">
-        <f t="shared" si="10"/>
-        <v>-0.95792734374999988</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B26" s="14">
-        <f t="shared" si="3"/>
-        <v>2.5305699613202941E-17</v>
-      </c>
-      <c r="C26" s="14">
-        <f t="shared" si="4"/>
-        <v>-1.7798566093095455E-16</v>
-      </c>
-      <c r="D26" s="14">
-        <f t="shared" si="5"/>
-        <v>5.405391374889497E-16</v>
-      </c>
-      <c r="E26" s="14">
-        <f t="shared" si="6"/>
-        <v>-1.0732086586204438E-15</v>
-      </c>
-      <c r="F26" s="14">
-        <f t="shared" si="7"/>
-        <v>-0.94458740832705013</v>
-      </c>
-      <c r="G26" s="14">
-        <f>SUM(B26:F26)</f>
-        <v>-0.94458740832705079</v>
-      </c>
-      <c r="H26" s="14">
-        <f t="shared" si="8"/>
-        <v>-0.94458740832705113</v>
-      </c>
-      <c r="I26" s="14">
-        <f t="shared" si="10"/>
-        <v>-0.9446</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B27" s="14">
-        <f>B$8*(((E15-A$9)*(E15-A$10)*(E15-A$11)*(E15-A$12)*(E15-A$13))/((A$8-A$9)*(A$8-A$10)*(A$8-A$11)*(A$8-A$12)*(A$8-A$13)))</f>
-        <v>-0.91173391478696508</v>
-      </c>
-      <c r="C27" s="14">
-        <f>B$9*(((E15-A$8)*(E15-A$10)*(E15-A$11)*(E15-A$12)*(E15-A$13))/((A$9-A$8)*(A$9-A$10)*(A$9-A$11)*(A$9-A$12)*(A$9-A$13)))</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="14">
-        <f>B$10*(((E15-A$8)*(E15-A$9)*(E15-A$11)*(E15-A$12)*(E15-A$13))/((A$10-A$8)*(A$10-A$9)*(A$10-A$11)*(A$10-A$12)*(A$10-A$13)))</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="14">
-        <f>B$11*(((E15-A$8)*(E15-A$9)*(E15-A$10)*(E15-A$12)*(E15-A$13))/(($A$11-$A$8)*($A$11-$A$9)*($A$11-$A$10)*($A$11-$A$12)*($A$11-$A$13)))</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="14">
-        <f>$B$12*(((E15-$A$8)*(E15-$A$9)*(E15-$A$10)*(E15-$A$11)*(E15-$A$13))/(($A$12-$A$8)*($A$12-$A$9)*($A$12-$A$10)*($A$12-$A$11)*($A$12-$A$13)))</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="14">
-        <f t="shared" ref="G27" si="12">SUM(B27:F27)</f>
-        <v>-0.91173391478696508</v>
-      </c>
-      <c r="H27" s="14">
-        <f t="shared" si="8"/>
-        <v>-0.91173391478696508</v>
-      </c>
-      <c r="I27" s="14">
-        <f t="shared" si="10"/>
-        <v>-0.91169999999999995</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B29" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="G29" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="H29" s="14">
         <f>99375/240000</f>
         <v>0.4140625</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B30" s="15" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="G25" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="G30" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="H30" s="14">
+      <c r="H25" s="14">
         <f>-217250/240000</f>
         <v>-0.90520833333333328</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B31" s="15" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="G26" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="G31" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="H31" s="14">
+      <c r="H26" s="14">
         <f>217725/240000</f>
         <v>0.90718750000000004</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B32" s="15" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="G27" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="G32" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="H32" s="14">
+      <c r="H27" s="14">
         <f>-95890/240000</f>
         <v>-0.39954166666666668</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" s="15" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="G28" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="G33" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="H33" s="14">
+      <c r="H28" s="14">
         <f>-218808/240000</f>
         <v>-0.91169999999999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B28:E28"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Математика/ШмидтАВ_ДЗ.xlsx
+++ b/Математика/ШмидтАВ_ДЗ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\omstu-works-2\Математика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631B21E9-037B-4AE8-9552-EB84250EB1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253365FB-DF78-4150-9D8D-4737B81C67F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="14880" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ДЗ1 - метод половинного деления" sheetId="2" r:id="rId1"/>
@@ -23,9 +23,12 @@
     <sheet name="ДЗ4 - Метод скорейшего спуска" sheetId="10" r:id="rId8"/>
     <sheet name="ДЗ5 - Многочлен Лагранжа" sheetId="13" r:id="rId9"/>
     <sheet name="ДЗ5 - Многочлен Ньютона" sheetId="14" r:id="rId10"/>
+    <sheet name="ДЗ6 - Метод прямоугольников" sheetId="15" r:id="rId11"/>
+    <sheet name="ДЗ6 - Метод трапеций" sheetId="16" r:id="rId12"/>
+    <sheet name="ДЗ6 - Метод Симпсона" sheetId="17" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="231">
   <si>
     <t>Уравнение</t>
   </si>
@@ -767,6 +770,36 @@
   <si>
     <t>delta</t>
   </si>
+  <si>
+    <t>f(x)</t>
+  </si>
+  <si>
+    <t>ln(1,3*x)/x^1,3</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Средние прямоугольники</t>
+  </si>
+  <si>
+    <t>(x_i + x_i+1)/2</t>
+  </si>
+  <si>
+    <t>Интеграл</t>
+  </si>
+  <si>
+    <t>f(x+1)</t>
+  </si>
+  <si>
+    <t>x'</t>
+  </si>
+  <si>
+    <t>f(x')</t>
+  </si>
 </sst>
 </file>
 
@@ -920,7 +953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -936,6 +969,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -949,7 +985,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -9783,6 +9818,1227 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>f(x)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ДЗ6 - Метод прямоугольников'!$A$12:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57999999999999985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65999999999999981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89999999999999969</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97999999999999965</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ДЗ6 - Метод прямоугольников'!$C$12:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-21.950229407758002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.961336547008802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.5041490903959325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4808802290025023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4109672318017004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.7882659947270948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.40149823086414022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.14994549483681308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9203596714106663E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13570254924630762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2172821441962933</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27499565434628681</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31599296964535989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34504366735331599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36541326965144205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.37938770705018759</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38859803564805473</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3942274669891398</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.3971467927054208</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39800499533615036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23EB-444E-B455-C0109D222EE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="38986479"/>
+        <c:axId val="38989391"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="38986479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38989391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="38989391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38986479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>f(x)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Метод прямоугольников'!$A$12:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57999999999999985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65999999999999981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89999999999999969</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97999999999999965</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Метод прямоугольников'!$C$12:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-21.950229407758002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.961336547008802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.5041490903959325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4808802290025023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4109672318017004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.7882659947270948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.40149823086414022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.14994549483681308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9203596714106663E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13570254924630762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2172821441962933</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27499565434628681</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31599296964535989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34504366735331599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36541326965144205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.37938770705018759</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38859803564805473</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3942274669891398</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.3971467927054208</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39800499533615036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F401-44FF-88E6-C03DBC6FDF2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="38986479"/>
+        <c:axId val="38989391"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="38986479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38989391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="38989391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38986479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>f(x)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ДЗ6 - Метод Симпсона'!$A$11:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57999999999999985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65999999999999981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89999999999999969</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97999999999999965</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ДЗ6 - Метод Симпсона'!$B$11:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-40.70775733373619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13.497153872896348</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.2495398945184908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.3189793680205031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.8690853364200486</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.0607119610233144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.57325949782958652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.26285317648141626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.7301721092907834E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.2724358616077798E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18005067754600612</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24860582610412432</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29724244668577526</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33177969135470803</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35615230503579753</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.37308545575525892</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38450579435868676</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.39179984973857135</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39598096922013487</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39779979890670963</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.39781897178010039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8940-44CB-8E4A-AD81F89CF1E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="435502479"/>
+        <c:axId val="435502063"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="435502479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435502063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="435502063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435502479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9984,6 +11240,126 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13119,6 +14495,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -13373,87 +16297,477 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3EC85C-E3C4-44FD-82CD-46B49309D745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7836A511-0337-47BD-9ACF-67D736B483E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF4C5EA-A45C-4FDA-90B7-586454F65622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Многочлен Лагранжа"/>
-      <sheetName val="Многочлен Ньютона"/>
+      <sheetName val="Метод прямоугольников"/>
+      <sheetName val="Метод трапеций"/>
+      <sheetName val="Метод Симпсона"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="12">
+          <cell r="A12">
+            <v>0.1</v>
+          </cell>
+          <cell r="C12">
+            <v>-21.950229407758002</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>0.18</v>
+          </cell>
+          <cell r="C13">
+            <v>-8.961336547008802</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>0.26</v>
+          </cell>
+          <cell r="C14">
+            <v>-4.5041490903959325</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>0.33999999999999997</v>
+          </cell>
+          <cell r="C15">
+            <v>-2.4808802290025023</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>0.41999999999999993</v>
+          </cell>
+          <cell r="C16">
+            <v>-1.4109672318017004</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>0.49999999999999989</v>
+          </cell>
+          <cell r="C17">
+            <v>-0.7882659947270948</v>
+          </cell>
+        </row>
         <row r="18">
           <cell r="A18">
-            <v>0</v>
+            <v>0.57999999999999985</v>
           </cell>
-          <cell r="G18">
-            <v>-0.91173391478696508</v>
-          </cell>
-          <cell r="H18">
-            <v>-0.91169999999999995</v>
-          </cell>
-          <cell r="I18">
-            <v>-0.91173391478696508</v>
+          <cell r="C18">
+            <v>-0.40149823086414022</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>0.2</v>
+            <v>0.65999999999999981</v>
           </cell>
-          <cell r="G19">
-            <v>-0.96189138749512737</v>
-          </cell>
-          <cell r="H19">
-            <v>-0.96189999999999998</v>
-          </cell>
-          <cell r="I19">
-            <v>-0.96189138749512737</v>
+          <cell r="C19">
+            <v>-0.14994549483681308</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>0.4</v>
+            <v>0.73999999999999977</v>
           </cell>
-          <cell r="G20">
-            <v>-0.97374874326976235</v>
-          </cell>
-          <cell r="H20">
-            <v>-0.97370000000000001</v>
-          </cell>
-          <cell r="I20">
-            <v>-0.97374874326976235</v>
+          <cell r="C20">
+            <v>1.9203596714106663E-2</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>0.60000000000000009</v>
+            <v>0.81999999999999973</v>
           </cell>
-          <cell r="G21">
-            <v>-0.9666604230107646</v>
-          </cell>
-          <cell r="H21">
-            <v>-0.96669999999999989</v>
-          </cell>
-          <cell r="I21">
-            <v>-0.9666604230107646</v>
+          <cell r="C21">
+            <v>0.13570254924630762</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>0.8</v>
+            <v>0.89999999999999969</v>
           </cell>
-          <cell r="G22">
-            <v>-0.94458740832705101</v>
+          <cell r="C22">
+            <v>0.2172821441962933</v>
           </cell>
-          <cell r="H22">
-            <v>-0.94459999999999988</v>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>0.97999999999999965</v>
           </cell>
-          <cell r="I22">
-            <v>-0.94458740832705101</v>
+          <cell r="C23">
+            <v>0.27499565434628681</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>1.0599999999999996</v>
+          </cell>
+          <cell r="C24">
+            <v>0.31599296964535989</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>1.1399999999999997</v>
+          </cell>
+          <cell r="C25">
+            <v>0.34504366735331599</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>1.2199999999999998</v>
+          </cell>
+          <cell r="C26">
+            <v>0.36541326965144205</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>1.2999999999999998</v>
+          </cell>
+          <cell r="C27">
+            <v>0.37938770705018759</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>1.38</v>
+          </cell>
+          <cell r="C28">
+            <v>0.38859803564805473</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>1.46</v>
+          </cell>
+          <cell r="C29">
+            <v>0.3942274669891398</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>1.54</v>
+          </cell>
+          <cell r="C30">
+            <v>0.3971467927054208</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>1.62</v>
+          </cell>
+          <cell r="C31">
+            <v>0.39800499533615036</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="11">
+          <cell r="A11">
+            <v>0.1</v>
+          </cell>
+          <cell r="B11">
+            <v>-40.70775733373619</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>0.18</v>
+          </cell>
+          <cell r="B12">
+            <v>-13.497153872896348</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>0.26</v>
+          </cell>
+          <cell r="B13">
+            <v>-6.2495398945184908</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>0.33999999999999997</v>
+          </cell>
+          <cell r="B14">
+            <v>-3.3189793680205031</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>0.41999999999999993</v>
+          </cell>
+          <cell r="B15">
+            <v>-1.8690853364200486</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>0.49999999999999989</v>
+          </cell>
+          <cell r="B16">
+            <v>-1.0607119610233144</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>0.57999999999999985</v>
+          </cell>
+          <cell r="B17">
+            <v>-0.57325949782958652</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>0.65999999999999981</v>
+          </cell>
+          <cell r="B18">
+            <v>-0.26285317648141626</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>0.73999999999999977</v>
+          </cell>
+          <cell r="B19">
+            <v>-5.7301721092907834E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>0.81999999999999973</v>
+          </cell>
+          <cell r="B20">
+            <v>8.2724358616077798E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>0.89999999999999969</v>
+          </cell>
+          <cell r="B21">
+            <v>0.18005067754600612</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>0.97999999999999965</v>
+          </cell>
+          <cell r="B22">
+            <v>0.24860582610412432</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>1.0599999999999996</v>
+          </cell>
+          <cell r="B23">
+            <v>0.29724244668577526</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>1.1399999999999997</v>
+          </cell>
+          <cell r="B24">
+            <v>0.33177969135470803</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>1.2199999999999998</v>
+          </cell>
+          <cell r="B25">
+            <v>0.35615230503579753</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>1.2999999999999998</v>
+          </cell>
+          <cell r="B26">
+            <v>0.37308545575525892</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>1.38</v>
+          </cell>
+          <cell r="B27">
+            <v>0.38450579435868676</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>1.46</v>
+          </cell>
+          <cell r="B28">
+            <v>0.39179984973857135</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>1.54</v>
+          </cell>
+          <cell r="B29">
+            <v>0.39598096922013487</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>1.62</v>
+          </cell>
+          <cell r="B30">
+            <v>0.39779979890670963</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>1.7000000000000002</v>
+          </cell>
+          <cell r="B31">
+            <v>0.39781897178010039</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -16771,7 +20085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5345AC35-4774-40C6-BF16-313675620095}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -16823,18 +20137,18 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="D6" s="15" t="s">
+      <c r="B6" s="24"/>
+      <c r="D6" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
@@ -17089,18 +20403,18 @@
       </c>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="I17" s="15" t="s">
+      <c r="E17" s="18"/>
+      <c r="I17" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="N17" s="15" t="s">
+      <c r="J17" s="18"/>
+      <c r="N17" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="O17" s="15"/>
+      <c r="O17" s="18"/>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D18" s="14" t="s">
@@ -17135,13 +20449,13 @@
       <c r="I20" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="17" t="s">
         <v>218</v>
       </c>
       <c r="N20" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="O20" s="22" t="s">
+      <c r="O20" s="17" t="s">
         <v>219</v>
       </c>
     </row>
@@ -17203,6 +20517,1319 @@
     <mergeCell ref="N17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F59A22D-D984-4FE3-BD1A-E7C9A528F55A}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="16">
+        <f>10^-4</f>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="15">
+        <f>((B5-B4)/B8)*SUM(C12:C31)</f>
+        <v>-2.9613018702010336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <f>B4</f>
+        <v>0.1</v>
+      </c>
+      <c r="B12" s="16">
+        <f>(A13+A12)/2</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C12" s="16">
+        <f>(LN(1.3*B12))/(B12^1.3)</f>
+        <v>-21.950229407758002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <f>A12+($B$5-$B$4)/$B$8</f>
+        <v>0.18</v>
+      </c>
+      <c r="B13" s="16">
+        <f t="shared" ref="B13:B31" si="0">(A14+A13)/2</f>
+        <v>0.22</v>
+      </c>
+      <c r="C13" s="16">
+        <f t="shared" ref="C13:C31" si="1">(LN(1.3*B13))/(B13^1.3)</f>
+        <v>-8.961336547008802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <f t="shared" ref="A14:A32" si="2">A13+($B$5-$B$4)/$B$8</f>
+        <v>0.26</v>
+      </c>
+      <c r="B14" s="16">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="C14" s="16">
+        <f t="shared" si="1"/>
+        <v>-4.5041490903959325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <f t="shared" si="2"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="B15" s="16">
+        <f t="shared" si="0"/>
+        <v>0.37999999999999995</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" si="1"/>
+        <v>-2.4808802290025023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <f t="shared" si="2"/>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="B16" s="16">
+        <f t="shared" si="0"/>
+        <v>0.45999999999999991</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="1"/>
+        <v>-1.4109672318017004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <f t="shared" si="2"/>
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="B17" s="16">
+        <f t="shared" si="0"/>
+        <v>0.53999999999999981</v>
+      </c>
+      <c r="C17" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.7882659947270948</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <f t="shared" si="2"/>
+        <v>0.57999999999999985</v>
+      </c>
+      <c r="B18" s="16">
+        <f t="shared" si="0"/>
+        <v>0.61999999999999988</v>
+      </c>
+      <c r="C18" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.40149823086414022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <f t="shared" si="2"/>
+        <v>0.65999999999999981</v>
+      </c>
+      <c r="B19" s="16">
+        <f t="shared" si="0"/>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="C19" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.14994549483681308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <f t="shared" si="2"/>
+        <v>0.73999999999999977</v>
+      </c>
+      <c r="B20" s="16">
+        <f t="shared" si="0"/>
+        <v>0.7799999999999998</v>
+      </c>
+      <c r="C20" s="16">
+        <f t="shared" si="1"/>
+        <v>1.9203596714106663E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <f t="shared" si="2"/>
+        <v>0.81999999999999973</v>
+      </c>
+      <c r="B21" s="16">
+        <f t="shared" si="0"/>
+        <v>0.85999999999999965</v>
+      </c>
+      <c r="C21" s="16">
+        <f t="shared" si="1"/>
+        <v>0.13570254924630762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999969</v>
+      </c>
+      <c r="B22" s="16">
+        <f t="shared" si="0"/>
+        <v>0.93999999999999972</v>
+      </c>
+      <c r="C22" s="16">
+        <f t="shared" si="1"/>
+        <v>0.2172821441962933</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <f t="shared" si="2"/>
+        <v>0.97999999999999965</v>
+      </c>
+      <c r="B23" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0199999999999996</v>
+      </c>
+      <c r="C23" s="16">
+        <f t="shared" si="1"/>
+        <v>0.27499565434628681</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0599999999999996</v>
+      </c>
+      <c r="B24" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="C24" s="16">
+        <f t="shared" si="1"/>
+        <v>0.31599296964535989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <f t="shared" si="2"/>
+        <v>1.1399999999999997</v>
+      </c>
+      <c r="B25" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1799999999999997</v>
+      </c>
+      <c r="C25" s="16">
+        <f t="shared" si="1"/>
+        <v>0.34504366735331599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2199999999999998</v>
+      </c>
+      <c r="B26" s="16">
+        <f t="shared" si="0"/>
+        <v>1.2599999999999998</v>
+      </c>
+      <c r="C26" s="16">
+        <f t="shared" si="1"/>
+        <v>0.36541326965144205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="B27" s="16">
+        <f t="shared" si="0"/>
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="C27" s="16">
+        <f t="shared" si="1"/>
+        <v>0.37938770705018759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <f t="shared" si="2"/>
+        <v>1.38</v>
+      </c>
+      <c r="B28" s="16">
+        <f t="shared" si="0"/>
+        <v>1.42</v>
+      </c>
+      <c r="C28" s="16">
+        <f t="shared" si="1"/>
+        <v>0.38859803564805473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <f t="shared" si="2"/>
+        <v>1.46</v>
+      </c>
+      <c r="B29" s="16">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="C29" s="16">
+        <f t="shared" si="1"/>
+        <v>0.3942274669891398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <f t="shared" si="2"/>
+        <v>1.54</v>
+      </c>
+      <c r="B30" s="16">
+        <f t="shared" si="0"/>
+        <v>1.58</v>
+      </c>
+      <c r="C30" s="16">
+        <f t="shared" si="1"/>
+        <v>0.3971467927054208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <f t="shared" si="2"/>
+        <v>1.62</v>
+      </c>
+      <c r="B31" s="16">
+        <f t="shared" si="0"/>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="C31" s="16">
+        <f t="shared" si="1"/>
+        <v>0.39800499533615036</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:K10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A37D3C-EAE8-425F-BF40-30CA0AB0EDD4}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="16">
+        <f>10^-4</f>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="16">
+        <f>((B5-B4)/B8)*(((B11+B31)/2)+SUM(B12:B30))</f>
+        <v>-3.4883301468751045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <f>B4</f>
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="16">
+        <f>(LN(1.3*A11))/(A11^1.3)</f>
+        <v>-40.70775733373619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <f>A11+($B$5-$B$4)/$B$8</f>
+        <v>0.18</v>
+      </c>
+      <c r="B12" s="16">
+        <f t="shared" ref="B12:B31" si="0">(LN(1.3*A12))/(A12^1.3)</f>
+        <v>-13.497153872896348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <f t="shared" ref="A13:A31" si="1">A12+($B$5-$B$4)/$B$8</f>
+        <v>0.26</v>
+      </c>
+      <c r="B13" s="16">
+        <f t="shared" si="0"/>
+        <v>-6.2495398945184908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <f t="shared" si="1"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="B14" s="16">
+        <f t="shared" si="0"/>
+        <v>-3.3189793680205031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <f t="shared" si="1"/>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="B15" s="16">
+        <f t="shared" si="0"/>
+        <v>-1.8690853364200486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <f t="shared" si="1"/>
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="B16" s="16">
+        <f t="shared" si="0"/>
+        <v>-1.0607119610233144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <f t="shared" si="1"/>
+        <v>0.57999999999999985</v>
+      </c>
+      <c r="B17" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.57325949782958652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <f t="shared" si="1"/>
+        <v>0.65999999999999981</v>
+      </c>
+      <c r="B18" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.26285317648141626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <f t="shared" si="1"/>
+        <v>0.73999999999999977</v>
+      </c>
+      <c r="B19" s="16">
+        <f t="shared" si="0"/>
+        <v>-5.7301721092907834E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <f t="shared" si="1"/>
+        <v>0.81999999999999973</v>
+      </c>
+      <c r="B20" s="16">
+        <f t="shared" si="0"/>
+        <v>8.2724358616077798E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999969</v>
+      </c>
+      <c r="B21" s="16">
+        <f t="shared" si="0"/>
+        <v>0.18005067754600612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <f t="shared" si="1"/>
+        <v>0.97999999999999965</v>
+      </c>
+      <c r="B22" s="16">
+        <f t="shared" si="0"/>
+        <v>0.24860582610412432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <f t="shared" si="1"/>
+        <v>1.0599999999999996</v>
+      </c>
+      <c r="B23" s="16">
+        <f t="shared" si="0"/>
+        <v>0.29724244668577526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <f t="shared" si="1"/>
+        <v>1.1399999999999997</v>
+      </c>
+      <c r="B24" s="16">
+        <f t="shared" si="0"/>
+        <v>0.33177969135470803</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <f t="shared" si="1"/>
+        <v>1.2199999999999998</v>
+      </c>
+      <c r="B25" s="16">
+        <f t="shared" si="0"/>
+        <v>0.35615230503579753</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="B26" s="16">
+        <f t="shared" si="0"/>
+        <v>0.37308545575525892</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <f t="shared" si="1"/>
+        <v>1.38</v>
+      </c>
+      <c r="B27" s="16">
+        <f t="shared" si="0"/>
+        <v>0.38450579435868676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <f t="shared" si="1"/>
+        <v>1.46</v>
+      </c>
+      <c r="B28" s="16">
+        <f t="shared" si="0"/>
+        <v>0.39179984973857135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <f t="shared" si="1"/>
+        <v>1.54</v>
+      </c>
+      <c r="B29" s="16">
+        <f t="shared" si="0"/>
+        <v>0.39598096922013487</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <f t="shared" si="1"/>
+        <v>1.62</v>
+      </c>
+      <c r="B30" s="16">
+        <f t="shared" si="0"/>
+        <v>0.39779979890670963</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="B31" s="16">
+        <f t="shared" si="0"/>
+        <v>0.39781897178010039</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3DE38D-26A5-4B78-80E3-5DE0FB38F9EA}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="16">
+        <f>10^-4</f>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="K10" s="16">
+        <f>((B5-B4)/(B8*6))*(B11+B31+4*SUM(H11:H30)+2*SUM(B12:B30))</f>
+        <v>-3.1369779624257239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <f>B4</f>
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="16">
+        <f>(LN(1.3*A11))/(A11^1.3)</f>
+        <v>-40.70775733373619</v>
+      </c>
+      <c r="D11" s="16">
+        <f>B4+($B$5-$B$4)/$B$8</f>
+        <v>0.18</v>
+      </c>
+      <c r="E11" s="16">
+        <f>(LN(1.3*D11))/(D11^1.3)</f>
+        <v>-13.497153872896348</v>
+      </c>
+      <c r="G11" s="16">
+        <f t="shared" ref="G11:G30" si="0">A11+(D11-A11)/2</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H11" s="16">
+        <f>(LN(1.3*G11))/(G11^1.3)</f>
+        <v>-21.950229407758002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <f>A11+($B$5-$B$4)/$B$8</f>
+        <v>0.18</v>
+      </c>
+      <c r="B12" s="16">
+        <f t="shared" ref="B12:B31" si="1">(LN(1.3*A12))/(A12^1.3)</f>
+        <v>-13.497153872896348</v>
+      </c>
+      <c r="D12" s="16">
+        <f>D11+($B$5-$B$4)/$B$8</f>
+        <v>0.26</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" ref="E12:E30" si="2">(LN(1.3*D12))/(D12^1.3)</f>
+        <v>-6.2495398945184908</v>
+      </c>
+      <c r="G12" s="16">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" ref="H12:H30" si="3">(LN(1.3*G12))/(G12^1.3)</f>
+        <v>-8.961336547008802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <f t="shared" ref="A13:A31" si="4">A12+($B$5-$B$4)/$B$8</f>
+        <v>0.26</v>
+      </c>
+      <c r="B13" s="16">
+        <f t="shared" si="1"/>
+        <v>-6.2495398945184908</v>
+      </c>
+      <c r="D13" s="16">
+        <f t="shared" ref="D13:D30" si="5">D12+($B$5-$B$4)/$B$8</f>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="2"/>
+        <v>-3.3189793680205031</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="3"/>
+        <v>-4.5041490903959325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <f t="shared" si="4"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="B14" s="16">
+        <f t="shared" si="1"/>
+        <v>-3.3189793680205031</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" si="5"/>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="2"/>
+        <v>-1.8690853364200486</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" si="0"/>
+        <v>0.37999999999999995</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="3"/>
+        <v>-2.4808802290025023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <f t="shared" si="4"/>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="B15" s="16">
+        <f t="shared" si="1"/>
+        <v>-1.8690853364200486</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="5"/>
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="2"/>
+        <v>-1.0607119610233144</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="0"/>
+        <v>0.45999999999999991</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.4109672318017004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="B16" s="16">
+        <f t="shared" si="1"/>
+        <v>-1.0607119610233144</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="5"/>
+        <v>0.57999999999999985</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="2"/>
+        <v>-0.57325949782958652</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="0"/>
+        <v>0.53999999999999981</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.7882659947270948</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <f t="shared" si="4"/>
+        <v>0.57999999999999985</v>
+      </c>
+      <c r="B17" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.57325949782958652</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="5"/>
+        <v>0.65999999999999981</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="2"/>
+        <v>-0.26285317648141626</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" si="0"/>
+        <v>0.61999999999999988</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.40149823086414022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <f t="shared" si="4"/>
+        <v>0.65999999999999981</v>
+      </c>
+      <c r="B18" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.26285317648141626</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" si="5"/>
+        <v>0.73999999999999977</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="2"/>
+        <v>-5.7301721092907834E-2</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" si="0"/>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.14994549483681308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <f t="shared" si="4"/>
+        <v>0.73999999999999977</v>
+      </c>
+      <c r="B19" s="16">
+        <f t="shared" si="1"/>
+        <v>-5.7301721092907834E-2</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" si="5"/>
+        <v>0.81999999999999973</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="2"/>
+        <v>8.2724358616077798E-2</v>
+      </c>
+      <c r="G19" s="16">
+        <f t="shared" si="0"/>
+        <v>0.7799999999999998</v>
+      </c>
+      <c r="H19" s="16">
+        <f t="shared" si="3"/>
+        <v>1.9203596714106663E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <f t="shared" si="4"/>
+        <v>0.81999999999999973</v>
+      </c>
+      <c r="B20" s="16">
+        <f t="shared" si="1"/>
+        <v>8.2724358616077798E-2</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.89999999999999969</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="2"/>
+        <v>0.18005067754600612</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" si="0"/>
+        <v>0.85999999999999965</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.13570254924630762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999969</v>
+      </c>
+      <c r="B21" s="16">
+        <f t="shared" si="1"/>
+        <v>0.18005067754600612</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" si="5"/>
+        <v>0.97999999999999965</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="2"/>
+        <v>0.24860582610412432</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" si="0"/>
+        <v>0.93999999999999972</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="3"/>
+        <v>0.2172821441962933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <f t="shared" si="4"/>
+        <v>0.97999999999999965</v>
+      </c>
+      <c r="B22" s="16">
+        <f t="shared" si="1"/>
+        <v>0.24860582610412432</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" si="5"/>
+        <v>1.0599999999999996</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="2"/>
+        <v>0.29724244668577526</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0199999999999996</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" si="3"/>
+        <v>0.27499565434628681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <f t="shared" si="4"/>
+        <v>1.0599999999999996</v>
+      </c>
+      <c r="B23" s="16">
+        <f t="shared" si="1"/>
+        <v>0.29724244668577526</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" si="5"/>
+        <v>1.1399999999999997</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="2"/>
+        <v>0.33177969135470803</v>
+      </c>
+      <c r="G23" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="3"/>
+        <v>0.31599296964535989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <f t="shared" si="4"/>
+        <v>1.1399999999999997</v>
+      </c>
+      <c r="B24" s="16">
+        <f t="shared" si="1"/>
+        <v>0.33177969135470803</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" si="5"/>
+        <v>1.2199999999999998</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="2"/>
+        <v>0.35615230503579753</v>
+      </c>
+      <c r="G24" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1799999999999997</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" si="3"/>
+        <v>0.34504366735331599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <f t="shared" si="4"/>
+        <v>1.2199999999999998</v>
+      </c>
+      <c r="B25" s="16">
+        <f t="shared" si="1"/>
+        <v>0.35615230503579753</v>
+      </c>
+      <c r="D25" s="16">
+        <f t="shared" si="5"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" si="2"/>
+        <v>0.37308545575525892</v>
+      </c>
+      <c r="G25" s="16">
+        <f t="shared" si="0"/>
+        <v>1.2599999999999998</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="3"/>
+        <v>0.36541326965144205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <f t="shared" si="4"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="B26" s="16">
+        <f t="shared" si="1"/>
+        <v>0.37308545575525892</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" si="5"/>
+        <v>1.38</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" si="2"/>
+        <v>0.38450579435868676</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="0"/>
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="3"/>
+        <v>0.37938770705018759</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <f t="shared" si="4"/>
+        <v>1.38</v>
+      </c>
+      <c r="B27" s="16">
+        <f t="shared" si="1"/>
+        <v>0.38450579435868676</v>
+      </c>
+      <c r="D27" s="16">
+        <f t="shared" si="5"/>
+        <v>1.46</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" si="2"/>
+        <v>0.39179984973857135</v>
+      </c>
+      <c r="G27" s="16">
+        <f t="shared" si="0"/>
+        <v>1.42</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" si="3"/>
+        <v>0.38859803564805473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <f t="shared" si="4"/>
+        <v>1.46</v>
+      </c>
+      <c r="B28" s="16">
+        <f t="shared" si="1"/>
+        <v>0.39179984973857135</v>
+      </c>
+      <c r="D28" s="16">
+        <f t="shared" si="5"/>
+        <v>1.54</v>
+      </c>
+      <c r="E28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.39598096922013487</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="3"/>
+        <v>0.3942274669891398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <f t="shared" si="4"/>
+        <v>1.54</v>
+      </c>
+      <c r="B29" s="16">
+        <f t="shared" si="1"/>
+        <v>0.39598096922013487</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="5"/>
+        <v>1.62</v>
+      </c>
+      <c r="E29" s="16">
+        <f t="shared" si="2"/>
+        <v>0.39779979890670963</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="0"/>
+        <v>1.58</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="3"/>
+        <v>0.3971467927054208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <f t="shared" si="4"/>
+        <v>1.62</v>
+      </c>
+      <c r="B30" s="16">
+        <f t="shared" si="1"/>
+        <v>0.39779979890670963</v>
+      </c>
+      <c r="D30" s="16">
+        <f t="shared" si="5"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="E30" s="16">
+        <f t="shared" si="2"/>
+        <v>0.39781897178010039</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" si="0"/>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="3"/>
+        <v>0.39800499533615036</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <f t="shared" si="4"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="B31" s="16">
+        <f t="shared" si="1"/>
+        <v>0.39781897178010039</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21177,13 +25804,13 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
       <c r="G9" s="5" t="s">
         <v>51</v>
       </c>
@@ -21504,12 +26131,12 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="I15" s="5">
         <v>10</v>
       </c>
@@ -22446,13 +27073,13 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
       <c r="G9" s="5" t="s">
         <v>51</v>
       </c>
@@ -22773,12 +27400,12 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="G15" s="5" t="s">
         <v>55</v>
       </c>
@@ -23422,25 +28049,25 @@
       <c r="E3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="18"/>
+      <c r="O3" s="21"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -23458,8 +28085,8 @@
       <c r="E4" s="5">
         <v>-13.390309999999999</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="5" t="s">
         <v>36</v>
       </c>
@@ -23498,7 +28125,7 @@
       <c r="E5" s="5">
         <v>6.7320399999999996</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="19">
         <v>1</v>
       </c>
       <c r="H5" s="5">
@@ -23544,7 +28171,7 @@
       <c r="E6" s="5">
         <v>-1.2572000000000001</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="5">
         <f>-I6/I$7</f>
         <v>0.12368665602504192</v>
@@ -23588,7 +28215,7 @@
       <c r="E7" s="5">
         <v>-11.351179999999999</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="6" t="s">
         <v>65</v>
       </c>
@@ -23616,7 +28243,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G8" s="17"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="5">
         <f>-I8/I$7</f>
         <v>3.0157445654348768E-3</v>
@@ -23645,7 +28272,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G9" s="16">
+      <c r="G9" s="19">
         <v>2</v>
       </c>
       <c r="H9" s="5">
@@ -23682,7 +28309,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G10" s="19"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="5">
         <f>-J10/J$11</f>
         <v>0.59192213481208067</v>
@@ -23717,7 +28344,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G11" s="19"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="6" t="s">
         <v>65</v>
       </c>
@@ -23751,7 +28378,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G12" s="16">
+      <c r="G12" s="19">
         <v>3</v>
       </c>
       <c r="H12" s="5">
@@ -23788,7 +28415,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G13" s="17"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="6" t="s">
         <v>65</v>
       </c>
@@ -24916,22 +29543,22 @@
       <c r="A1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -38587,10 +43214,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
@@ -38661,15 +43288,15 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="14" t="s">
         <v>183</v>
       </c>
@@ -38892,12 +43519,12 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
       <c r="G24" s="14" t="s">
         <v>191</v>
       </c>
@@ -38907,12 +43534,12 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
       <c r="G25" s="14" t="s">
         <v>193</v>
       </c>
@@ -38922,12 +43549,12 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
       <c r="G26" s="14" t="s">
         <v>195</v>
       </c>
@@ -38937,12 +43564,12 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
       <c r="G27" s="14" t="s">
         <v>197</v>
       </c>
@@ -38952,12 +43579,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
       <c r="G28" s="14" t="s">
         <v>199</v>
       </c>
